--- a/Code/Results/Cases/Case_2_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.427496545608392</v>
+        <v>2.427496545608335</v>
       </c>
       <c r="C2">
-        <v>0.7946804325308392</v>
+        <v>0.7946804325305834</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1140405280831587</v>
+        <v>0.1140405280831942</v>
       </c>
       <c r="F2">
         <v>2.286276991280133</v>
@@ -433,10 +433,10 @@
         <v>1.546740290207623</v>
       </c>
       <c r="I2">
-        <v>0.2208713335844408</v>
+        <v>0.2208713335844195</v>
       </c>
       <c r="J2">
-        <v>0.738537013253044</v>
+        <v>0.7385370132530227</v>
       </c>
       <c r="K2">
         <v>0.3076245779155684</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.089068584569418</v>
+        <v>2.089068584569191</v>
       </c>
       <c r="C3">
-        <v>0.681778936559283</v>
+        <v>0.6817789365592546</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09863182616046373</v>
+        <v>0.09863182616053123</v>
       </c>
       <c r="F3">
-        <v>1.985986161007119</v>
+        <v>1.985986161007091</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.396236373507918</v>
+        <v>1.396236373507932</v>
       </c>
       <c r="I3">
-        <v>0.2060298226954593</v>
+        <v>0.2060298226954487</v>
       </c>
       <c r="J3">
-        <v>0.6350091043628723</v>
+        <v>0.6350091043628581</v>
       </c>
       <c r="K3">
-        <v>0.2648956499823854</v>
+        <v>0.2648956499824138</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.884777586451889</v>
+        <v>1.884777586451946</v>
       </c>
       <c r="C4">
-        <v>0.6138935141883621</v>
+        <v>0.6138935141883906</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08926837374979613</v>
+        <v>0.08926837374978547</v>
       </c>
       <c r="F4">
         <v>1.805963561664001</v>
@@ -506,16 +506,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.30732897167411</v>
+        <v>1.307328971674096</v>
       </c>
       <c r="I4">
-        <v>0.1974590925766755</v>
+        <v>0.1974590925766897</v>
       </c>
       <c r="J4">
-        <v>0.5725851840686147</v>
+        <v>0.5725851840686218</v>
       </c>
       <c r="K4">
-        <v>0.2390563384792586</v>
+        <v>0.2390563384792159</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.802271372501593</v>
+        <v>1.80227137250165</v>
       </c>
       <c r="C5">
-        <v>0.5865345588017021</v>
+        <v>0.5865345588016737</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.08547269711367633</v>
+        <v>0.08547269711365857</v>
       </c>
       <c r="F5">
         <v>1.733556889132416</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.271877672639661</v>
+        <v>1.271877672639647</v>
       </c>
       <c r="I5">
-        <v>0.1940872620250147</v>
+        <v>0.1940872620250254</v>
       </c>
       <c r="J5">
-        <v>0.5473894816548821</v>
+        <v>0.5473894816548892</v>
       </c>
       <c r="K5">
-        <v>0.2286097995820953</v>
+        <v>0.2286097995821095</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.788612454072052</v>
+        <v>1.78861245407208</v>
       </c>
       <c r="C6">
-        <v>0.5820084989507563</v>
+        <v>0.58200849895087</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0848435116385744</v>
+        <v>0.08484351163854953</v>
       </c>
       <c r="F6">
-        <v>1.721587532505978</v>
+        <v>1.721587532505964</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.266035278267296</v>
+        <v>1.266035278267267</v>
       </c>
       <c r="I6">
         <v>0.1935342456528915</v>
       </c>
       <c r="J6">
-        <v>0.5432191780304905</v>
+        <v>0.5432191780304478</v>
       </c>
       <c r="K6">
-        <v>0.226879731434849</v>
+        <v>0.2268797314348845</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.883662038048527</v>
+        <v>1.883662038048328</v>
       </c>
       <c r="C7">
-        <v>0.6135233776027462</v>
+        <v>0.6135233776024052</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0892171086079756</v>
+        <v>0.08921710860796139</v>
       </c>
       <c r="F7">
-        <v>1.804983375304218</v>
+        <v>1.804983375304232</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.306847835644177</v>
+        <v>1.306847835644163</v>
       </c>
       <c r="I7">
-        <v>0.1974131490568318</v>
+        <v>0.1974131490568425</v>
       </c>
       <c r="J7">
-        <v>0.5722444599158507</v>
+        <v>0.5722444599158649</v>
       </c>
       <c r="K7">
-        <v>0.2389151366382691</v>
+        <v>0.2389151366382194</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.309991936158667</v>
+        <v>2.309991936158838</v>
       </c>
       <c r="C8">
-        <v>0.7554180903292718</v>
+        <v>0.7554180903294423</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1087045020774084</v>
+        <v>0.1087045020774404</v>
       </c>
       <c r="F8">
-        <v>2.18174293875316</v>
+        <v>2.181742938753175</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>1.494055369989951</v>
       </c>
       <c r="I8">
-        <v>0.2156316497155757</v>
+        <v>0.215631649715565</v>
       </c>
       <c r="J8">
-        <v>0.7025750280563017</v>
+        <v>0.7025750280563088</v>
       </c>
       <c r="K8">
-        <v>0.2927989217358373</v>
+        <v>0.2927989217358302</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.180868241052224</v>
+        <v>3.180868241052053</v>
       </c>
       <c r="C9">
-        <v>1.047957168102073</v>
+        <v>1.04795716810213</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1479225320984234</v>
+        <v>0.1479225320984909</v>
       </c>
       <c r="F9">
-        <v>2.962303734865628</v>
+        <v>2.962303734865543</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.894109863081738</v>
+        <v>1.894109863081709</v>
       </c>
       <c r="I9">
         <v>0.2564532527165966</v>
@@ -705,7 +705,7 @@
         <v>0.9695115411450956</v>
       </c>
       <c r="K9">
-        <v>0.4024505874847222</v>
+        <v>0.4024505874847435</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.853259414541412</v>
+        <v>3.85325941454164</v>
       </c>
       <c r="C10">
-        <v>1.276245749769544</v>
+        <v>1.276245749769487</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.177711253913543</v>
+        <v>0.1777112539135075</v>
       </c>
       <c r="F10">
-        <v>3.572600610074659</v>
+        <v>3.572600610074687</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>2.216323098057842</v>
       </c>
       <c r="I10">
-        <v>0.2908373154015109</v>
+        <v>0.2908373154014683</v>
       </c>
       <c r="J10">
         <v>1.176244625774586</v>
       </c>
       <c r="K10">
-        <v>0.4867853640311068</v>
+        <v>0.486785364031121</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.169254705595392</v>
+        <v>4.169254705595563</v>
       </c>
       <c r="C11">
-        <v>1.384255881020863</v>
+        <v>1.38425588102092</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1915699706762197</v>
+        <v>0.1915699706761487</v>
       </c>
       <c r="F11">
         <v>3.861239483179872</v>
@@ -772,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.37123661281629</v>
+        <v>2.371236612816276</v>
       </c>
       <c r="I11">
-        <v>0.3077834095441929</v>
+        <v>0.3077834095441787</v>
       </c>
       <c r="J11">
-        <v>1.273589655666299</v>
+        <v>1.273589655666242</v>
       </c>
       <c r="K11">
-        <v>0.5263284924024418</v>
+        <v>0.5263284924024845</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.290672686539835</v>
+        <v>4.290672686539722</v>
       </c>
       <c r="C12">
-        <v>1.42588083356037</v>
+        <v>1.425880833560029</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1968714372819136</v>
+        <v>0.196871437281942</v>
       </c>
       <c r="F12">
-        <v>3.972419262985028</v>
+        <v>3.972419262984999</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.431314874865478</v>
+        <v>2.431314874865464</v>
       </c>
       <c r="I12">
-        <v>0.31442360897573</v>
+        <v>0.3144236089757229</v>
       </c>
       <c r="J12">
-        <v>1.311025624850146</v>
+        <v>1.31102562485016</v>
       </c>
       <c r="K12">
-        <v>0.541507397609287</v>
+        <v>0.5415073976092799</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.264439635711938</v>
+        <v>4.264439635711994</v>
       </c>
       <c r="C13">
-        <v>1.416881729070212</v>
+        <v>1.41688172907061</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1957271318395755</v>
+        <v>0.1957271318395541</v>
       </c>
       <c r="F13">
-        <v>3.948385966231371</v>
+        <v>3.948385966231399</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2.418309136831752</v>
+        <v>2.418309136831766</v>
       </c>
       <c r="I13">
-        <v>0.3129829679815543</v>
+        <v>0.3129829679815899</v>
       </c>
       <c r="J13">
         <v>1.302935858235898</v>
       </c>
       <c r="K13">
-        <v>0.5382286183977953</v>
+        <v>0.5382286183977882</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,31 +871,31 @@
         <v>4.179206704399519</v>
       </c>
       <c r="C14">
-        <v>1.387665087458572</v>
+        <v>1.387665087458402</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1920049961701054</v>
+        <v>0.1920049961701196</v>
       </c>
       <c r="F14">
-        <v>3.870346808248684</v>
+        <v>3.870346808248712</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.376149541880736</v>
+        <v>2.37614954188075</v>
       </c>
       <c r="I14">
-        <v>0.3083250059443259</v>
+        <v>0.3083250059443614</v>
       </c>
       <c r="J14">
         <v>1.276657415701322</v>
       </c>
       <c r="K14">
-        <v>0.527572943729723</v>
+        <v>0.5275729437297798</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.127237761006313</v>
+        <v>4.127237761006199</v>
       </c>
       <c r="C15">
-        <v>1.369867411147936</v>
+        <v>1.369867411147425</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1897323410909735</v>
+        <v>0.1897323410909664</v>
       </c>
       <c r="F15">
-        <v>3.822799744616617</v>
+        <v>3.822799744616646</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.350517002666734</v>
+        <v>2.350517002666749</v>
       </c>
       <c r="I15">
-        <v>0.30550208222094</v>
+        <v>0.3055020822209755</v>
       </c>
       <c r="J15">
-        <v>1.260639015332671</v>
+        <v>1.260639015332629</v>
       </c>
       <c r="K15">
-        <v>0.5210738465868872</v>
+        <v>0.5210738465869085</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.832836749870012</v>
+        <v>3.832836749870182</v>
       </c>
       <c r="C16">
-        <v>1.269281016195976</v>
+        <v>1.269281016195805</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1768125042540589</v>
+        <v>0.1768125042540376</v>
       </c>
       <c r="F16">
-        <v>3.553983171797341</v>
+        <v>3.553983171797313</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2.206384672035355</v>
+        <v>2.206384672035327</v>
       </c>
       <c r="I16">
-        <v>0.2897589939777561</v>
+        <v>0.2897589939777134</v>
       </c>
       <c r="J16">
-        <v>1.169957407822238</v>
+        <v>1.169957407822253</v>
       </c>
       <c r="K16">
         <v>0.4842277386662843</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.65502340605741</v>
+        <v>3.65502340605758</v>
       </c>
       <c r="C17">
-        <v>1.208723086708289</v>
+        <v>1.20872308670846</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1689715651214811</v>
+        <v>0.1689715651214101</v>
       </c>
       <c r="F17">
-        <v>3.392089476147135</v>
+        <v>3.392089476147191</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2.120243365650566</v>
+        <v>2.120243365650595</v>
       </c>
       <c r="I17">
-        <v>0.2804586229207331</v>
+        <v>0.2804586229207402</v>
       </c>
       <c r="J17">
         <v>1.115238037261122</v>
       </c>
       <c r="K17">
-        <v>0.461949174948117</v>
+        <v>0.4619491749481313</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.553681812136176</v>
+        <v>3.553681812136404</v>
       </c>
       <c r="C18">
-        <v>1.174274737262635</v>
+        <v>1.174274737262579</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1644899998097387</v>
+        <v>0.1644899998097245</v>
       </c>
       <c r="F18">
-        <v>3.299988906577681</v>
+        <v>3.29998890657771</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2.071467054922877</v>
+        <v>2.07146705492292</v>
       </c>
       <c r="I18">
-        <v>0.2752296395790026</v>
+        <v>0.2752296395789742</v>
       </c>
       <c r="J18">
-        <v>1.084068835366921</v>
+        <v>1.084068835366935</v>
       </c>
       <c r="K18">
-        <v>0.4492436818583911</v>
+        <v>0.4492436818583982</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.519520930300018</v>
+        <v>3.519520930300075</v>
       </c>
       <c r="C19">
         <v>1.162673399764856</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1629772254416864</v>
+        <v>0.1629772254417432</v>
       </c>
       <c r="F19">
         <v>3.268971529019836</v>
@@ -1076,16 +1076,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2.055078399120873</v>
+        <v>2.055078399120859</v>
       </c>
       <c r="I19">
-        <v>0.2734788818326592</v>
+        <v>0.273478881832645</v>
       </c>
       <c r="J19">
-        <v>1.07356492633734</v>
+        <v>1.073564926337355</v>
       </c>
       <c r="K19">
-        <v>0.4449594764738833</v>
+        <v>0.4449594764738549</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.673853455664528</v>
+        <v>3.673853455664471</v>
       </c>
       <c r="C20">
-        <v>1.215129102261585</v>
+        <v>1.215129102261812</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1698032512178926</v>
+        <v>0.1698032512179068</v>
       </c>
       <c r="F20">
         <v>3.409216147460569</v>
@@ -1114,16 +1114,16 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.129332110999101</v>
+        <v>2.129332110999115</v>
       </c>
       <c r="I20">
-        <v>0.2814359706460152</v>
+        <v>0.2814359706459868</v>
       </c>
       <c r="J20">
         <v>1.121030887151704</v>
       </c>
       <c r="K20">
-        <v>0.4643092937957007</v>
+        <v>0.464309293795715</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.204191328134186</v>
+        <v>4.204191328134016</v>
       </c>
       <c r="C21">
-        <v>1.396225969896193</v>
+        <v>1.396225969896363</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1930967461365398</v>
+        <v>0.1930967461365469</v>
       </c>
       <c r="F21">
         <v>3.893215238067739</v>
@@ -1152,13 +1152,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.388492504630293</v>
+        <v>2.388492504630321</v>
       </c>
       <c r="I21">
-        <v>0.3096867935349508</v>
+        <v>0.3096867935349721</v>
       </c>
       <c r="J21">
-        <v>1.284359595646578</v>
+        <v>1.284359595646549</v>
       </c>
       <c r="K21">
         <v>0.5306969067253817</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2086373771487402</v>
+        <v>0.2086373771488041</v>
       </c>
       <c r="F22">
-        <v>4.220658005944728</v>
+        <v>4.220658005944699</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.566249385327183</v>
+        <v>2.566249385327168</v>
       </c>
       <c r="I22">
-        <v>0.3294719712436631</v>
+        <v>0.329471971243656</v>
       </c>
       <c r="J22">
-        <v>1.394505849077348</v>
+        <v>1.394505849077333</v>
       </c>
       <c r="K22">
-        <v>0.5752993527941115</v>
+        <v>0.5752993527941257</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.369599962303425</v>
+        <v>4.369599962303539</v>
       </c>
       <c r="C23">
-        <v>1.452975676194399</v>
+        <v>1.452975676194455</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2003106285427236</v>
+        <v>0.2003106285427734</v>
       </c>
       <c r="F23">
-        <v>4.04476803351136</v>
+        <v>4.044768033511332</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.470529027080659</v>
+        <v>2.470529027080673</v>
       </c>
       <c r="I23">
-        <v>0.3187778622970541</v>
+        <v>0.3187778622970612</v>
       </c>
       <c r="J23">
-        <v>1.335370296849646</v>
+        <v>1.335370296849675</v>
       </c>
       <c r="K23">
-        <v>0.5513698870781667</v>
+        <v>0.551369887078188</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,13 +1251,13 @@
         <v>3.665337653711504</v>
       </c>
       <c r="C24">
-        <v>1.212231808037245</v>
+        <v>1.212231808037018</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1694271647087078</v>
+        <v>0.1694271647087362</v>
       </c>
       <c r="F24">
         <v>3.401470166393722</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.125220776939713</v>
+        <v>2.125220776939727</v>
       </c>
       <c r="I24">
         <v>0.2809937470270825</v>
@@ -1275,7 +1275,7 @@
         <v>1.118411044623372</v>
       </c>
       <c r="K24">
-        <v>0.4632419666069367</v>
+        <v>0.4632419666069296</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.940468776550176</v>
+        <v>2.940468776549892</v>
       </c>
       <c r="C25">
-        <v>0.9668476867733204</v>
+        <v>0.9668476867728089</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1371707738763028</v>
+        <v>0.1371707738763348</v>
       </c>
       <c r="F25">
         <v>2.745586383337212</v>
@@ -1307,10 +1307,10 @@
         <v>1.781575974820953</v>
       </c>
       <c r="I25">
-        <v>0.2447430474244783</v>
+        <v>0.2447430474244889</v>
       </c>
       <c r="J25">
-        <v>0.8957320663516697</v>
+        <v>0.8957320663516555</v>
       </c>
       <c r="K25">
         <v>0.3722322237914426</v>

--- a/Code/Results/Cases/Case_2_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.427496545608335</v>
+        <v>2.427496545608392</v>
       </c>
       <c r="C2">
-        <v>0.7946804325305834</v>
+        <v>0.7946804325308392</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1140405280831942</v>
+        <v>0.1140405280831587</v>
       </c>
       <c r="F2">
         <v>2.286276991280133</v>
@@ -433,10 +433,10 @@
         <v>1.546740290207623</v>
       </c>
       <c r="I2">
-        <v>0.2208713335844195</v>
+        <v>0.2208713335844408</v>
       </c>
       <c r="J2">
-        <v>0.7385370132530227</v>
+        <v>0.738537013253044</v>
       </c>
       <c r="K2">
         <v>0.3076245779155684</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.089068584569191</v>
+        <v>2.089068584569418</v>
       </c>
       <c r="C3">
-        <v>0.6817789365592546</v>
+        <v>0.681778936559283</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09863182616053123</v>
+        <v>0.09863182616046373</v>
       </c>
       <c r="F3">
-        <v>1.985986161007091</v>
+        <v>1.985986161007119</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.396236373507932</v>
+        <v>1.396236373507918</v>
       </c>
       <c r="I3">
-        <v>0.2060298226954487</v>
+        <v>0.2060298226954593</v>
       </c>
       <c r="J3">
-        <v>0.6350091043628581</v>
+        <v>0.6350091043628723</v>
       </c>
       <c r="K3">
-        <v>0.2648956499824138</v>
+        <v>0.2648956499823854</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.884777586451946</v>
+        <v>1.884777586451889</v>
       </c>
       <c r="C4">
-        <v>0.6138935141883906</v>
+        <v>0.6138935141883621</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08926837374978547</v>
+        <v>0.08926837374979613</v>
       </c>
       <c r="F4">
         <v>1.805963561664001</v>
@@ -506,16 +506,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.307328971674096</v>
+        <v>1.30732897167411</v>
       </c>
       <c r="I4">
-        <v>0.1974590925766897</v>
+        <v>0.1974590925766755</v>
       </c>
       <c r="J4">
-        <v>0.5725851840686218</v>
+        <v>0.5725851840686147</v>
       </c>
       <c r="K4">
-        <v>0.2390563384792159</v>
+        <v>0.2390563384792586</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.80227137250165</v>
+        <v>1.802271372501593</v>
       </c>
       <c r="C5">
-        <v>0.5865345588016737</v>
+        <v>0.5865345588017021</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.08547269711365857</v>
+        <v>0.08547269711367633</v>
       </c>
       <c r="F5">
         <v>1.733556889132416</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.271877672639647</v>
+        <v>1.271877672639661</v>
       </c>
       <c r="I5">
-        <v>0.1940872620250254</v>
+        <v>0.1940872620250147</v>
       </c>
       <c r="J5">
-        <v>0.5473894816548892</v>
+        <v>0.5473894816548821</v>
       </c>
       <c r="K5">
-        <v>0.2286097995821095</v>
+        <v>0.2286097995820953</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.78861245407208</v>
+        <v>1.788612454072052</v>
       </c>
       <c r="C6">
-        <v>0.58200849895087</v>
+        <v>0.5820084989507563</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08484351163854953</v>
+        <v>0.0848435116385744</v>
       </c>
       <c r="F6">
-        <v>1.721587532505964</v>
+        <v>1.721587532505978</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.266035278267267</v>
+        <v>1.266035278267296</v>
       </c>
       <c r="I6">
         <v>0.1935342456528915</v>
       </c>
       <c r="J6">
-        <v>0.5432191780304478</v>
+        <v>0.5432191780304905</v>
       </c>
       <c r="K6">
-        <v>0.2268797314348845</v>
+        <v>0.226879731434849</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.883662038048328</v>
+        <v>1.883662038048527</v>
       </c>
       <c r="C7">
-        <v>0.6135233776024052</v>
+        <v>0.6135233776027462</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.08921710860796139</v>
+        <v>0.0892171086079756</v>
       </c>
       <c r="F7">
-        <v>1.804983375304232</v>
+        <v>1.804983375304218</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.306847835644163</v>
+        <v>1.306847835644177</v>
       </c>
       <c r="I7">
-        <v>0.1974131490568425</v>
+        <v>0.1974131490568318</v>
       </c>
       <c r="J7">
-        <v>0.5722444599158649</v>
+        <v>0.5722444599158507</v>
       </c>
       <c r="K7">
-        <v>0.2389151366382194</v>
+        <v>0.2389151366382691</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.309991936158838</v>
+        <v>2.309991936158667</v>
       </c>
       <c r="C8">
-        <v>0.7554180903294423</v>
+        <v>0.7554180903292718</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1087045020774404</v>
+        <v>0.1087045020774084</v>
       </c>
       <c r="F8">
-        <v>2.181742938753175</v>
+        <v>2.18174293875316</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>1.494055369989951</v>
       </c>
       <c r="I8">
-        <v>0.215631649715565</v>
+        <v>0.2156316497155757</v>
       </c>
       <c r="J8">
-        <v>0.7025750280563088</v>
+        <v>0.7025750280563017</v>
       </c>
       <c r="K8">
-        <v>0.2927989217358302</v>
+        <v>0.2927989217358373</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.180868241052053</v>
+        <v>3.180868241052224</v>
       </c>
       <c r="C9">
-        <v>1.04795716810213</v>
+        <v>1.047957168102073</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1479225320984909</v>
+        <v>0.1479225320984234</v>
       </c>
       <c r="F9">
-        <v>2.962303734865543</v>
+        <v>2.962303734865628</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.894109863081709</v>
+        <v>1.894109863081738</v>
       </c>
       <c r="I9">
         <v>0.2564532527165966</v>
@@ -705,7 +705,7 @@
         <v>0.9695115411450956</v>
       </c>
       <c r="K9">
-        <v>0.4024505874847435</v>
+        <v>0.4024505874847222</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.85325941454164</v>
+        <v>3.853259414541412</v>
       </c>
       <c r="C10">
-        <v>1.276245749769487</v>
+        <v>1.276245749769544</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1777112539135075</v>
+        <v>0.177711253913543</v>
       </c>
       <c r="F10">
-        <v>3.572600610074687</v>
+        <v>3.572600610074659</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>2.216323098057842</v>
       </c>
       <c r="I10">
-        <v>0.2908373154014683</v>
+        <v>0.2908373154015109</v>
       </c>
       <c r="J10">
         <v>1.176244625774586</v>
       </c>
       <c r="K10">
-        <v>0.486785364031121</v>
+        <v>0.4867853640311068</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.169254705595563</v>
+        <v>4.169254705595392</v>
       </c>
       <c r="C11">
-        <v>1.38425588102092</v>
+        <v>1.384255881020863</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1915699706761487</v>
+        <v>0.1915699706762197</v>
       </c>
       <c r="F11">
         <v>3.861239483179872</v>
@@ -772,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.371236612816276</v>
+        <v>2.37123661281629</v>
       </c>
       <c r="I11">
-        <v>0.3077834095441787</v>
+        <v>0.3077834095441929</v>
       </c>
       <c r="J11">
-        <v>1.273589655666242</v>
+        <v>1.273589655666299</v>
       </c>
       <c r="K11">
-        <v>0.5263284924024845</v>
+        <v>0.5263284924024418</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.290672686539722</v>
+        <v>4.290672686539835</v>
       </c>
       <c r="C12">
-        <v>1.425880833560029</v>
+        <v>1.42588083356037</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.196871437281942</v>
+        <v>0.1968714372819136</v>
       </c>
       <c r="F12">
-        <v>3.972419262984999</v>
+        <v>3.972419262985028</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.431314874865464</v>
+        <v>2.431314874865478</v>
       </c>
       <c r="I12">
-        <v>0.3144236089757229</v>
+        <v>0.31442360897573</v>
       </c>
       <c r="J12">
-        <v>1.31102562485016</v>
+        <v>1.311025624850146</v>
       </c>
       <c r="K12">
-        <v>0.5415073976092799</v>
+        <v>0.541507397609287</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.264439635711994</v>
+        <v>4.264439635711938</v>
       </c>
       <c r="C13">
-        <v>1.41688172907061</v>
+        <v>1.416881729070212</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1957271318395541</v>
+        <v>0.1957271318395755</v>
       </c>
       <c r="F13">
-        <v>3.948385966231399</v>
+        <v>3.948385966231371</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2.418309136831766</v>
+        <v>2.418309136831752</v>
       </c>
       <c r="I13">
-        <v>0.3129829679815899</v>
+        <v>0.3129829679815543</v>
       </c>
       <c r="J13">
         <v>1.302935858235898</v>
       </c>
       <c r="K13">
-        <v>0.5382286183977882</v>
+        <v>0.5382286183977953</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,31 +871,31 @@
         <v>4.179206704399519</v>
       </c>
       <c r="C14">
-        <v>1.387665087458402</v>
+        <v>1.387665087458572</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1920049961701196</v>
+        <v>0.1920049961701054</v>
       </c>
       <c r="F14">
-        <v>3.870346808248712</v>
+        <v>3.870346808248684</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.37614954188075</v>
+        <v>2.376149541880736</v>
       </c>
       <c r="I14">
-        <v>0.3083250059443614</v>
+        <v>0.3083250059443259</v>
       </c>
       <c r="J14">
         <v>1.276657415701322</v>
       </c>
       <c r="K14">
-        <v>0.5275729437297798</v>
+        <v>0.527572943729723</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.127237761006199</v>
+        <v>4.127237761006313</v>
       </c>
       <c r="C15">
-        <v>1.369867411147425</v>
+        <v>1.369867411147936</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1897323410909664</v>
+        <v>0.1897323410909735</v>
       </c>
       <c r="F15">
-        <v>3.822799744616646</v>
+        <v>3.822799744616617</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.350517002666749</v>
+        <v>2.350517002666734</v>
       </c>
       <c r="I15">
-        <v>0.3055020822209755</v>
+        <v>0.30550208222094</v>
       </c>
       <c r="J15">
-        <v>1.260639015332629</v>
+        <v>1.260639015332671</v>
       </c>
       <c r="K15">
-        <v>0.5210738465869085</v>
+        <v>0.5210738465868872</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.832836749870182</v>
+        <v>3.832836749870012</v>
       </c>
       <c r="C16">
-        <v>1.269281016195805</v>
+        <v>1.269281016195976</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1768125042540376</v>
+        <v>0.1768125042540589</v>
       </c>
       <c r="F16">
-        <v>3.553983171797313</v>
+        <v>3.553983171797341</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2.206384672035327</v>
+        <v>2.206384672035355</v>
       </c>
       <c r="I16">
-        <v>0.2897589939777134</v>
+        <v>0.2897589939777561</v>
       </c>
       <c r="J16">
-        <v>1.169957407822253</v>
+        <v>1.169957407822238</v>
       </c>
       <c r="K16">
         <v>0.4842277386662843</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.65502340605758</v>
+        <v>3.65502340605741</v>
       </c>
       <c r="C17">
-        <v>1.20872308670846</v>
+        <v>1.208723086708289</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1689715651214101</v>
+        <v>0.1689715651214811</v>
       </c>
       <c r="F17">
-        <v>3.392089476147191</v>
+        <v>3.392089476147135</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2.120243365650595</v>
+        <v>2.120243365650566</v>
       </c>
       <c r="I17">
-        <v>0.2804586229207402</v>
+        <v>0.2804586229207331</v>
       </c>
       <c r="J17">
         <v>1.115238037261122</v>
       </c>
       <c r="K17">
-        <v>0.4619491749481313</v>
+        <v>0.461949174948117</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.553681812136404</v>
+        <v>3.553681812136176</v>
       </c>
       <c r="C18">
-        <v>1.174274737262579</v>
+        <v>1.174274737262635</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1644899998097245</v>
+        <v>0.1644899998097387</v>
       </c>
       <c r="F18">
-        <v>3.29998890657771</v>
+        <v>3.299988906577681</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2.07146705492292</v>
+        <v>2.071467054922877</v>
       </c>
       <c r="I18">
-        <v>0.2752296395789742</v>
+        <v>0.2752296395790026</v>
       </c>
       <c r="J18">
-        <v>1.084068835366935</v>
+        <v>1.084068835366921</v>
       </c>
       <c r="K18">
-        <v>0.4492436818583982</v>
+        <v>0.4492436818583911</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.519520930300075</v>
+        <v>3.519520930300018</v>
       </c>
       <c r="C19">
         <v>1.162673399764856</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1629772254417432</v>
+        <v>0.1629772254416864</v>
       </c>
       <c r="F19">
         <v>3.268971529019836</v>
@@ -1076,16 +1076,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2.055078399120859</v>
+        <v>2.055078399120873</v>
       </c>
       <c r="I19">
-        <v>0.273478881832645</v>
+        <v>0.2734788818326592</v>
       </c>
       <c r="J19">
-        <v>1.073564926337355</v>
+        <v>1.07356492633734</v>
       </c>
       <c r="K19">
-        <v>0.4449594764738549</v>
+        <v>0.4449594764738833</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.673853455664471</v>
+        <v>3.673853455664528</v>
       </c>
       <c r="C20">
-        <v>1.215129102261812</v>
+        <v>1.215129102261585</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1698032512179068</v>
+        <v>0.1698032512178926</v>
       </c>
       <c r="F20">
         <v>3.409216147460569</v>
@@ -1114,16 +1114,16 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.129332110999115</v>
+        <v>2.129332110999101</v>
       </c>
       <c r="I20">
-        <v>0.2814359706459868</v>
+        <v>0.2814359706460152</v>
       </c>
       <c r="J20">
         <v>1.121030887151704</v>
       </c>
       <c r="K20">
-        <v>0.464309293795715</v>
+        <v>0.4643092937957007</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.204191328134016</v>
+        <v>4.204191328134186</v>
       </c>
       <c r="C21">
-        <v>1.396225969896363</v>
+        <v>1.396225969896193</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1930967461365469</v>
+        <v>0.1930967461365398</v>
       </c>
       <c r="F21">
         <v>3.893215238067739</v>
@@ -1152,13 +1152,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.388492504630321</v>
+        <v>2.388492504630293</v>
       </c>
       <c r="I21">
-        <v>0.3096867935349721</v>
+        <v>0.3096867935349508</v>
       </c>
       <c r="J21">
-        <v>1.284359595646549</v>
+        <v>1.284359595646578</v>
       </c>
       <c r="K21">
         <v>0.5306969067253817</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2086373771488041</v>
+        <v>0.2086373771487402</v>
       </c>
       <c r="F22">
-        <v>4.220658005944699</v>
+        <v>4.220658005944728</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.566249385327168</v>
+        <v>2.566249385327183</v>
       </c>
       <c r="I22">
-        <v>0.329471971243656</v>
+        <v>0.3294719712436631</v>
       </c>
       <c r="J22">
-        <v>1.394505849077333</v>
+        <v>1.394505849077348</v>
       </c>
       <c r="K22">
-        <v>0.5752993527941257</v>
+        <v>0.5752993527941115</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.369599962303539</v>
+        <v>4.369599962303425</v>
       </c>
       <c r="C23">
-        <v>1.452975676194455</v>
+        <v>1.452975676194399</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2003106285427734</v>
+        <v>0.2003106285427236</v>
       </c>
       <c r="F23">
-        <v>4.044768033511332</v>
+        <v>4.04476803351136</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.470529027080673</v>
+        <v>2.470529027080659</v>
       </c>
       <c r="I23">
-        <v>0.3187778622970612</v>
+        <v>0.3187778622970541</v>
       </c>
       <c r="J23">
-        <v>1.335370296849675</v>
+        <v>1.335370296849646</v>
       </c>
       <c r="K23">
-        <v>0.551369887078188</v>
+        <v>0.5513698870781667</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,13 +1251,13 @@
         <v>3.665337653711504</v>
       </c>
       <c r="C24">
-        <v>1.212231808037018</v>
+        <v>1.212231808037245</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1694271647087362</v>
+        <v>0.1694271647087078</v>
       </c>
       <c r="F24">
         <v>3.401470166393722</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.125220776939727</v>
+        <v>2.125220776939713</v>
       </c>
       <c r="I24">
         <v>0.2809937470270825</v>
@@ -1275,7 +1275,7 @@
         <v>1.118411044623372</v>
       </c>
       <c r="K24">
-        <v>0.4632419666069296</v>
+        <v>0.4632419666069367</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.940468776549892</v>
+        <v>2.940468776550176</v>
       </c>
       <c r="C25">
-        <v>0.9668476867728089</v>
+        <v>0.9668476867733204</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1371707738763348</v>
+        <v>0.1371707738763028</v>
       </c>
       <c r="F25">
         <v>2.745586383337212</v>
@@ -1307,10 +1307,10 @@
         <v>1.781575974820953</v>
       </c>
       <c r="I25">
-        <v>0.2447430474244889</v>
+        <v>0.2447430474244783</v>
       </c>
       <c r="J25">
-        <v>0.8957320663516555</v>
+        <v>0.8957320663516697</v>
       </c>
       <c r="K25">
         <v>0.3722322237914426</v>

--- a/Code/Results/Cases/Case_2_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.427496545608392</v>
+        <v>2.406150441767124</v>
       </c>
       <c r="C2">
-        <v>0.7946804325308392</v>
+        <v>0.7842805476331023</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1140405280831587</v>
+        <v>0.1154100353909016</v>
       </c>
       <c r="F2">
-        <v>2.286276991280133</v>
+        <v>2.283201325264784</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007850828806780845</v>
       </c>
       <c r="H2">
-        <v>1.546740290207623</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2208713335844408</v>
+        <v>1.563524838332896</v>
       </c>
       <c r="J2">
-        <v>0.738537013253044</v>
+        <v>0.2261191962067173</v>
       </c>
       <c r="K2">
-        <v>0.3076245779155684</v>
+        <v>0.7311970834543047</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.3069275835106211</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.089068584569418</v>
+        <v>2.071152656836603</v>
       </c>
       <c r="C3">
-        <v>0.681778936559283</v>
+        <v>0.6730458821178615</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09863182616046373</v>
+        <v>0.09991738573062392</v>
       </c>
       <c r="F3">
-        <v>1.985986161007119</v>
+        <v>1.984707070068993</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007945054098336343</v>
       </c>
       <c r="H3">
-        <v>1.396236373507918</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2060298226954593</v>
+        <v>1.415216280370714</v>
       </c>
       <c r="J3">
-        <v>0.6350091043628723</v>
+        <v>0.2117676976438787</v>
       </c>
       <c r="K3">
-        <v>0.2648956499823854</v>
+        <v>0.6288520256861432</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.2643147705759858</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.884777586451889</v>
+        <v>1.868964984357319</v>
       </c>
       <c r="C4">
-        <v>0.6138935141883621</v>
+        <v>0.6061821643600922</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08926837374979613</v>
+        <v>0.09049934377699032</v>
       </c>
       <c r="F4">
-        <v>1.805963561664001</v>
+        <v>1.805767956845386</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008004184031241485</v>
       </c>
       <c r="H4">
-        <v>1.30732897167411</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1974590925766755</v>
+        <v>1.327643463203628</v>
       </c>
       <c r="J4">
-        <v>0.5725851840686147</v>
+        <v>0.2034942957777446</v>
       </c>
       <c r="K4">
-        <v>0.2390563384792586</v>
+        <v>0.5671535631844407</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.2385430876947581</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.802271372501593</v>
+        <v>1.787317206569469</v>
       </c>
       <c r="C5">
-        <v>0.5865345588017021</v>
+        <v>0.5792401267235334</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.08547269711367633</v>
+        <v>0.0866806608518722</v>
       </c>
       <c r="F5">
-        <v>1.733556889132416</v>
+        <v>1.733799386208887</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008028623971554159</v>
       </c>
       <c r="H5">
-        <v>1.271877672639661</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1940872620250147</v>
+        <v>1.292734226624972</v>
       </c>
       <c r="J5">
-        <v>0.5473894816548821</v>
+        <v>0.200243095924133</v>
       </c>
       <c r="K5">
-        <v>0.2286097995820953</v>
+        <v>0.5422539853030983</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.2281233285739148</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.788612454072052</v>
+        <v>1.773800964367126</v>
       </c>
       <c r="C6">
-        <v>0.5820084989507563</v>
+        <v>0.5747833567615999</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0848435116385744</v>
+        <v>0.08604760936624345</v>
       </c>
       <c r="F6">
-        <v>1.721587532505978</v>
+        <v>1.721902609440164</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008032703626104831</v>
       </c>
       <c r="H6">
-        <v>1.266035278267296</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1935342456528915</v>
+        <v>1.286981775418113</v>
       </c>
       <c r="J6">
-        <v>0.5432191780304905</v>
+        <v>0.1997100876152089</v>
       </c>
       <c r="K6">
-        <v>0.226879731434849</v>
+        <v>0.5381329015877867</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.2263976638904168</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.883662038048527</v>
+        <v>1.867861005320862</v>
       </c>
       <c r="C7">
-        <v>0.6135233776027462</v>
+        <v>0.605817646953966</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0892171086079756</v>
+        <v>0.09044777143893867</v>
       </c>
       <c r="F7">
-        <v>1.804983375304218</v>
+        <v>1.80479369090888</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008004512213988505</v>
       </c>
       <c r="H7">
-        <v>1.306847835644177</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1974131490568318</v>
+        <v>1.32716964293445</v>
       </c>
       <c r="J7">
-        <v>0.5722444599158507</v>
+        <v>0.2034499808433203</v>
       </c>
       <c r="K7">
-        <v>0.2389151366382691</v>
+        <v>0.5668168298076353</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.238402249997705</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.309991936158667</v>
+        <v>2.289830445965492</v>
       </c>
       <c r="C8">
-        <v>0.7554180903292718</v>
+        <v>0.7455939337745576</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1087045020774084</v>
+        <v>0.1100457001694579</v>
       </c>
       <c r="F8">
-        <v>2.18174293875316</v>
+        <v>2.179291774335923</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007883067770860196</v>
       </c>
       <c r="H8">
-        <v>1.494055369989951</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2156316497155757</v>
+        <v>1.511600663836347</v>
       </c>
       <c r="J8">
-        <v>0.7025750280563017</v>
+        <v>0.2210494335502311</v>
       </c>
       <c r="K8">
-        <v>0.2927989217358373</v>
+        <v>0.695643566390018</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.2921428174428726</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.180868241052224</v>
+        <v>3.152025565364625</v>
       </c>
       <c r="C9">
-        <v>1.047957168102073</v>
+        <v>1.033911744349723</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1479225320984234</v>
+        <v>0.1494559327691078</v>
       </c>
       <c r="F9">
-        <v>2.962303734865628</v>
+        <v>2.955181849736562</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007653849777764109</v>
       </c>
       <c r="H9">
-        <v>1.894109863081738</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2564532527165966</v>
+        <v>1.906021106199574</v>
       </c>
       <c r="J9">
-        <v>0.9695115411450956</v>
+        <v>0.2606100276104257</v>
       </c>
       <c r="K9">
-        <v>0.4024505874847222</v>
+        <v>0.95958724639857</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.401476777385291</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.853259414541412</v>
+        <v>3.817775739950093</v>
       </c>
       <c r="C10">
-        <v>1.276245749769544</v>
+        <v>1.258967966547573</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.177711253913543</v>
+        <v>0.1793700129724769</v>
       </c>
       <c r="F10">
-        <v>3.572600610074659</v>
+        <v>3.561766966214492</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007489002318575673</v>
       </c>
       <c r="H10">
-        <v>2.216323098057842</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2908373154015109</v>
+        <v>2.223839515544256</v>
       </c>
       <c r="J10">
-        <v>1.176244625774586</v>
+        <v>0.2940069594395354</v>
       </c>
       <c r="K10">
-        <v>0.4867853640311068</v>
+        <v>1.164031447289275</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.4855421854887823</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.169254705595392</v>
+        <v>4.130639523735113</v>
       </c>
       <c r="C11">
-        <v>1.384255881020863</v>
+        <v>1.365453129799391</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1915699706762197</v>
+        <v>0.1932819867135862</v>
       </c>
       <c r="F11">
-        <v>3.861239483179872</v>
+        <v>3.848616846848898</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007414280451384737</v>
       </c>
       <c r="H11">
-        <v>2.37123661281629</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3077834095441929</v>
+        <v>2.376657981827606</v>
       </c>
       <c r="J11">
-        <v>1.273589655666299</v>
+        <v>0.3104815990943379</v>
       </c>
       <c r="K11">
-        <v>0.5263284924024418</v>
+        <v>1.260297300433905</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.5249509475949239</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.290672686539835</v>
+        <v>4.250850083719058</v>
       </c>
       <c r="C12">
-        <v>1.42588083356037</v>
+        <v>1.406489987366342</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1968714372819136</v>
+        <v>0.1986030370840339</v>
       </c>
       <c r="F12">
-        <v>3.972419262985028</v>
+        <v>3.959100480229665</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007385974097599455</v>
       </c>
       <c r="H12">
-        <v>2.431314874865478</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.31442360897573</v>
+        <v>2.435924836642442</v>
       </c>
       <c r="J12">
-        <v>1.311025624850146</v>
+        <v>0.3169390665646645</v>
       </c>
       <c r="K12">
-        <v>0.541507397609287</v>
+        <v>1.29731718947815</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.5400768309005457</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.264439635711938</v>
+        <v>4.224878137591645</v>
       </c>
       <c r="C13">
-        <v>1.416881729070212</v>
+        <v>1.397618063152152</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1957271318395755</v>
+        <v>0.1974545406904795</v>
       </c>
       <c r="F13">
-        <v>3.948385966231371</v>
+        <v>3.935218020572279</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007392071729718892</v>
       </c>
       <c r="H13">
-        <v>2.418309136831752</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3129829679815543</v>
+        <v>2.423094731267028</v>
       </c>
       <c r="J13">
-        <v>1.302935858235898</v>
+        <v>0.3155379850693123</v>
       </c>
       <c r="K13">
-        <v>0.5382286183977953</v>
+        <v>1.289317399230356</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.5368095742547467</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.179206704399519</v>
+        <v>4.140492657238894</v>
       </c>
       <c r="C14">
-        <v>1.387665087458572</v>
+        <v>1.368814184365363</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1920049961701054</v>
+        <v>0.1937186353573068</v>
       </c>
       <c r="F14">
-        <v>3.870346808248684</v>
+        <v>3.857667301961186</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007411952196926908</v>
       </c>
       <c r="H14">
-        <v>2.376149541880736</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3083250059443259</v>
+        <v>2.38150454575316</v>
       </c>
       <c r="J14">
-        <v>1.276657415701322</v>
+        <v>0.3110082526515399</v>
       </c>
       <c r="K14">
-        <v>0.527572943729723</v>
+        <v>1.263330990835897</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.5261910825736749</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.127237761006313</v>
+        <v>4.089039799494003</v>
       </c>
       <c r="C15">
-        <v>1.369867411147936</v>
+        <v>1.351267860711971</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1897323410909735</v>
+        <v>0.1914374685058675</v>
       </c>
       <c r="F15">
-        <v>3.822799744616617</v>
+        <v>3.810416844679565</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007424126551485704</v>
       </c>
       <c r="H15">
-        <v>2.350517002666734</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.30550208222094</v>
+        <v>2.356218291458546</v>
       </c>
       <c r="J15">
-        <v>1.260639015332671</v>
+        <v>0.3082632931680536</v>
       </c>
       <c r="K15">
-        <v>0.5210738465868872</v>
+        <v>1.247490437795292</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.5197144674961081</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.832836749870012</v>
+        <v>3.797555044607805</v>
       </c>
       <c r="C16">
-        <v>1.269281016195976</v>
+        <v>1.252101571702838</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1768125042540589</v>
+        <v>0.1784677037534195</v>
       </c>
       <c r="F16">
-        <v>3.553983171797341</v>
+        <v>3.543264079070752</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.000749388691967608</v>
       </c>
       <c r="H16">
-        <v>2.206384672035355</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2897589939777561</v>
+        <v>2.214035732697113</v>
       </c>
       <c r="J16">
-        <v>1.169957407822238</v>
+        <v>0.2929589188059154</v>
       </c>
       <c r="K16">
-        <v>0.4842277386662843</v>
+        <v>1.157813834414526</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.4829930680255714</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.65502340605741</v>
+        <v>3.62149875856727</v>
       </c>
       <c r="C17">
-        <v>1.208723086708289</v>
+        <v>1.192399066631253</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1689715651214811</v>
+        <v>0.1705951446081855</v>
       </c>
       <c r="F17">
-        <v>3.392089476147135</v>
+        <v>3.382362601914167</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007536718575622003</v>
       </c>
       <c r="H17">
-        <v>2.120243365650566</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2804586229207331</v>
+        <v>2.129063241005966</v>
       </c>
       <c r="J17">
-        <v>1.115238037261122</v>
+        <v>0.2839213129544973</v>
       </c>
       <c r="K17">
-        <v>0.461949174948117</v>
+        <v>1.103700015949187</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.4607876979828376</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.553681812136176</v>
+        <v>3.521157784876152</v>
       </c>
       <c r="C18">
-        <v>1.174274737262635</v>
+        <v>1.158437797753948</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1644899998097387</v>
+        <v>0.1660950406945219</v>
       </c>
       <c r="F18">
-        <v>3.299988906577681</v>
+        <v>3.290823573616876</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007561382813865553</v>
       </c>
       <c r="H18">
-        <v>2.071467054922877</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2752296395790026</v>
+        <v>2.080950486338253</v>
       </c>
       <c r="J18">
-        <v>1.084068835366921</v>
+        <v>0.27884142616346</v>
       </c>
       <c r="K18">
-        <v>0.4492436818583911</v>
+        <v>1.072875679143152</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.4481232221660321</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.519520930300018</v>
+        <v>3.487334133332183</v>
       </c>
       <c r="C19">
-        <v>1.162673399764856</v>
+        <v>1.147000604506275</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1629772254416864</v>
+        <v>0.1645759301389091</v>
       </c>
       <c r="F19">
-        <v>3.268971529019836</v>
+        <v>3.259994866085719</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007569739993509519</v>
       </c>
       <c r="H19">
-        <v>2.055078399120873</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2734788818326592</v>
+        <v>2.064785118198657</v>
       </c>
       <c r="J19">
-        <v>1.07356492633734</v>
+        <v>0.2771408262677042</v>
       </c>
       <c r="K19">
-        <v>0.4449594764738833</v>
+        <v>1.062487998934202</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.4438527304760669</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.673853455664528</v>
+        <v>3.640142837914482</v>
       </c>
       <c r="C20">
-        <v>1.215129102261585</v>
+        <v>1.198714549956549</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1698032512178926</v>
+        <v>0.1714302333572562</v>
       </c>
       <c r="F20">
-        <v>3.409216147460569</v>
+        <v>3.3993846253139</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007532156444205462</v>
       </c>
       <c r="H20">
-        <v>2.129332110999101</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2814359706460152</v>
+        <v>2.13802849411762</v>
       </c>
       <c r="J20">
-        <v>1.121030887151704</v>
+        <v>0.2848709063423271</v>
       </c>
       <c r="K20">
-        <v>0.4643092937957007</v>
+        <v>1.109428771879649</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.4631401400551169</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.204191328134186</v>
+        <v>4.165229001879538</v>
       </c>
       <c r="C21">
-        <v>1.396225969896193</v>
+        <v>1.377254141927949</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1930967461365398</v>
+        <v>0.1948144460437575</v>
       </c>
       <c r="F21">
-        <v>3.893215238067739</v>
+        <v>3.880392811299998</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007406113548841818</v>
       </c>
       <c r="H21">
-        <v>2.388492504630293</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3096867935349508</v>
+        <v>2.393680788085391</v>
       </c>
       <c r="J21">
-        <v>1.284359595646578</v>
+        <v>0.3123324990578524</v>
       </c>
       <c r="K21">
-        <v>0.5306969067253817</v>
+        <v>1.270947612498063</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.5293041861485293</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.56122013602112</v>
+        <v>4.518696026644989</v>
       </c>
       <c r="C22">
-        <v>1.518877215778446</v>
+        <v>1.498170364006114</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2086373771487402</v>
+        <v>0.2104109351099837</v>
       </c>
       <c r="F22">
-        <v>4.220658005944728</v>
+        <v>4.205769161738544</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007323645225294346</v>
       </c>
       <c r="H22">
-        <v>2.566249385327183</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3294719712436631</v>
+        <v>2.569036940113165</v>
       </c>
       <c r="J22">
-        <v>1.394505849077348</v>
+        <v>0.3315767481937115</v>
       </c>
       <c r="K22">
-        <v>0.5752993527941115</v>
+        <v>1.379866508181223</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.5737477552348125</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.369599962303425</v>
+        <v>4.328990934964793</v>
       </c>
       <c r="C23">
-        <v>1.452975676194399</v>
+        <v>1.433201758907217</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2003106285427236</v>
+        <v>0.2020547055381314</v>
       </c>
       <c r="F23">
-        <v>4.04476803351136</v>
+        <v>4.03099396475443</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007367687028526708</v>
       </c>
       <c r="H23">
-        <v>2.470529027080659</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3187778622970541</v>
+        <v>2.474609452979479</v>
       </c>
       <c r="J23">
-        <v>1.335370296849646</v>
+        <v>0.3211740262609979</v>
       </c>
       <c r="K23">
-        <v>0.5513698870781667</v>
+        <v>1.321390863650905</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.5499044278057355</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.665337653711504</v>
+        <v>3.63171114240663</v>
       </c>
       <c r="C24">
-        <v>1.212231808037245</v>
+        <v>1.195858199836209</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1694271647087078</v>
+        <v>0.1710526096267344</v>
       </c>
       <c r="F24">
-        <v>3.401470166393722</v>
+        <v>3.39168598297897</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007534218856541336</v>
       </c>
       <c r="H24">
-        <v>2.125220776939713</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2809937470270825</v>
+        <v>2.133973016787735</v>
       </c>
       <c r="J24">
-        <v>1.118411044623372</v>
+        <v>0.2844412365267246</v>
       </c>
       <c r="K24">
-        <v>0.4632419666069367</v>
+        <v>1.106837916289919</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.4620762868152042</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.940468776550176</v>
+        <v>2.91400541432273</v>
       </c>
       <c r="C25">
-        <v>0.9668476867733204</v>
+        <v>0.9539597081825661</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1371707738763028</v>
+        <v>0.1386548781882944</v>
       </c>
       <c r="F25">
-        <v>2.745586383337212</v>
+        <v>2.739765847149698</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007715082831027784</v>
       </c>
       <c r="H25">
-        <v>1.781575974820953</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2447430474244783</v>
+        <v>1.795044582008842</v>
       </c>
       <c r="J25">
-        <v>0.8957320663516697</v>
+        <v>0.2492489471159836</v>
       </c>
       <c r="K25">
-        <v>0.3722322237914426</v>
+        <v>0.8866279314096346</v>
       </c>
       <c r="L25">
+        <v>0.3713495320436593</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.406150441767124</v>
+        <v>3.373657392007544</v>
       </c>
       <c r="C2">
-        <v>0.7842805476331023</v>
+        <v>0.5123559886259557</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1154100353909016</v>
+        <v>0.01680284175455116</v>
       </c>
       <c r="F2">
-        <v>2.283201325264784</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007850828806780845</v>
+        <v>0.0008324631506232346</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.563524838332896</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2261191962067173</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7311970834543047</v>
+        <v>0.8291599833961243</v>
       </c>
       <c r="L2">
-        <v>0.3069275835106211</v>
+        <v>0.1473281355047931</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.5390801169692736</v>
+      </c>
+      <c r="N2">
+        <v>2.20933911453092</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.071152656836603</v>
+        <v>2.96597734234274</v>
       </c>
       <c r="C3">
-        <v>0.6730458821178615</v>
+        <v>0.4397584397829633</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09991738573062392</v>
+        <v>0.01616716390575501</v>
       </c>
       <c r="F3">
-        <v>1.984707070068993</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007945054098336343</v>
+        <v>0.0008423399232157066</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.415216280370714</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2117676976438787</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6288520256861432</v>
+        <v>0.7232235233410478</v>
       </c>
       <c r="L3">
-        <v>0.2643147705759858</v>
+        <v>0.1336852924370291</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.4765864145357028</v>
+      </c>
+      <c r="N3">
+        <v>2.202550695732057</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.868964984357319</v>
+        <v>2.721889126733174</v>
       </c>
       <c r="C4">
-        <v>0.6061821643600922</v>
+        <v>0.3961006289532065</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.09049934377699032</v>
+        <v>0.01578695114022199</v>
       </c>
       <c r="F4">
-        <v>1.805767956845386</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008004184031241485</v>
+        <v>0.0008485496435163642</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.327643463203628</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2034942957777446</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5671535631844407</v>
+        <v>0.6597221237043414</v>
       </c>
       <c r="L4">
-        <v>0.2385430876947581</v>
+        <v>0.1255614396617659</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.4392023720805511</v>
+      </c>
+      <c r="N4">
+        <v>2.200942736792697</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.787317206569469</v>
+        <v>2.623801679821668</v>
       </c>
       <c r="C5">
-        <v>0.5792401267235334</v>
+        <v>0.3785053757722494</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0866806608518722</v>
+        <v>0.01563404882083619</v>
       </c>
       <c r="F5">
-        <v>1.733799386208887</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008028623971554159</v>
+        <v>0.0008511189617749932</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.292734226624972</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.200243095924133</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5422539853030983</v>
+        <v>0.6341842260275854</v>
       </c>
       <c r="L5">
-        <v>0.2281233285739148</v>
+        <v>0.1223084129727994</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.4241880263985749</v>
+      </c>
+      <c r="N5">
+        <v>2.200885355791002</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.773800964367126</v>
+        <v>2.607592600460862</v>
       </c>
       <c r="C6">
-        <v>0.5747833567615999</v>
+        <v>0.3755945537109255</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08604760936624345</v>
+        <v>0.01560876898535746</v>
       </c>
       <c r="F6">
-        <v>1.721902609440164</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.0008032703626104831</v>
+        <v>0.0008515480014357444</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.286981775418113</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1997100876152089</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5381329015877867</v>
+        <v>0.6299628368619921</v>
       </c>
       <c r="L6">
-        <v>0.2263976638904168</v>
+        <v>0.1217715560567996</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.421707411272827</v>
+      </c>
+      <c r="N6">
+        <v>2.200910675663735</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.867861005320862</v>
+        <v>2.720560928840371</v>
       </c>
       <c r="C7">
-        <v>0.605817646953966</v>
+        <v>0.395862584869036</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.09044777143893867</v>
+        <v>0.01578488141761891</v>
       </c>
       <c r="F7">
-        <v>1.80479369090888</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.0008004512213988505</v>
+        <v>0.0008485841342943742</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.32716964293445</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2034499808433203</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5668168298076353</v>
+        <v>0.6593763975542331</v>
       </c>
       <c r="L7">
-        <v>0.238402249997705</v>
+        <v>0.1255173430048444</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.4389990283289507</v>
+      </c>
+      <c r="N7">
+        <v>2.200939599743563</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.289830445965492</v>
+        <v>3.231678975323575</v>
       </c>
       <c r="C8">
-        <v>0.7455939337745576</v>
+        <v>0.4871117683083526</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1100457001694579</v>
+        <v>0.01658124404375716</v>
       </c>
       <c r="F8">
-        <v>2.179291774335923</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007883067770860196</v>
+        <v>0.0008358399207120203</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.511600663836347</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2210494335502311</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.695643566390018</v>
+        <v>0.7922817532528939</v>
       </c>
       <c r="L8">
-        <v>0.2921428174428726</v>
+        <v>0.142567749575683</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.5173094639246116</v>
+      </c>
+      <c r="N8">
+        <v>2.206438104919755</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.152025565364625</v>
+        <v>4.292835112686305</v>
       </c>
       <c r="C9">
-        <v>1.033911744349723</v>
+        <v>0.6751149349261993</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1494559327691078</v>
+        <v>0.01824916636746776</v>
       </c>
       <c r="F9">
-        <v>2.955181849736562</v>
+        <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0.0007653849777764109</v>
+        <v>0.0008118878677476553</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.906021106199574</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2606100276104257</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.95958724639857</v>
+        <v>1.067639325115223</v>
       </c>
       <c r="L9">
-        <v>0.401476777385291</v>
+        <v>0.17831796657007</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.6801461644194973</v>
+      </c>
+      <c r="N9">
+        <v>2.239855565983802</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.817775739950093</v>
+        <v>5.123363874857034</v>
       </c>
       <c r="C10">
-        <v>1.258967966547573</v>
+        <v>0.8216242448176274</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1793700129724769</v>
+        <v>0.01958244570770518</v>
       </c>
       <c r="F10">
-        <v>3.561766966214492</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.0007489002318575673</v>
+        <v>0.0007947436540512157</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.223839515544256</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2940069594395354</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.164031447289275</v>
+        <v>1.282877675021808</v>
       </c>
       <c r="L10">
-        <v>0.4855421854887823</v>
+        <v>0.2064821456871044</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.8077180366057704</v>
+      </c>
+      <c r="N10">
+        <v>2.281895018650744</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.130639523735113</v>
+        <v>5.516220075097067</v>
       </c>
       <c r="C11">
-        <v>1.365453129799391</v>
+        <v>0.8908584109943547</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1932819867135862</v>
+        <v>0.02022437564334201</v>
       </c>
       <c r="F11">
-        <v>3.848616846848898</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007414280451384737</v>
+        <v>0.0007869954116172807</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.376657981827606</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3104815990943379</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.260297300433905</v>
+        <v>1.384651805677109</v>
       </c>
       <c r="L11">
-        <v>0.5249509475949239</v>
+        <v>0.2198350805406477</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.8680807282332523</v>
+      </c>
+      <c r="N11">
+        <v>2.305795893050856</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.250850083719058</v>
+        <v>5.667540136825039</v>
       </c>
       <c r="C12">
-        <v>1.406489987366342</v>
+        <v>0.9175233920817618</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1986030370840339</v>
+        <v>0.02047378333873962</v>
       </c>
       <c r="F12">
-        <v>3.959100480229665</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007385974097599455</v>
+        <v>0.0007840640103629141</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.435924836642442</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3169390665646645</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.29731718947815</v>
+        <v>1.423849874098664</v>
       </c>
       <c r="L12">
-        <v>0.5400768309005457</v>
+        <v>0.2249818171342071</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.8913329932797041</v>
+      </c>
+      <c r="N12">
+        <v>2.31563063529947</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.224878137591645</v>
+        <v>5.634830189759157</v>
       </c>
       <c r="C13">
-        <v>1.397618063152152</v>
+        <v>0.9117593721023241</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1974545406904795</v>
+        <v>0.02041976560260306</v>
       </c>
       <c r="F13">
-        <v>3.935218020572279</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.0007392071729718892</v>
+        <v>0.0007846953014840138</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.423094731267028</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3155379850693123</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.289317399230356</v>
+        <v>1.415376767056799</v>
       </c>
       <c r="L13">
-        <v>0.5368095742547467</v>
+        <v>0.2238691414770955</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.8863066266426074</v>
+      </c>
+      <c r="N13">
+        <v>2.313475968093513</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.140492657238894</v>
+        <v>5.528615628036846</v>
       </c>
       <c r="C14">
-        <v>1.368814184365363</v>
+        <v>0.8930427095226321</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1937186353573068</v>
+        <v>0.02024475996416353</v>
       </c>
       <c r="F14">
-        <v>3.857667301961186</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007411952196926908</v>
+        <v>0.0007867542185766735</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.38150454575316</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3110082526515399</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.263330990835897</v>
+        <v>1.387862809675568</v>
       </c>
       <c r="L14">
-        <v>0.5261910825736749</v>
+        <v>0.2202566182942576</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.8699854332317543</v>
+      </c>
+      <c r="N14">
+        <v>2.306588680011743</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.089039799494003</v>
+        <v>5.463901366956236</v>
       </c>
       <c r="C15">
-        <v>1.351267860711971</v>
+        <v>0.88163894351149</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1914374685058675</v>
+        <v>0.02013842784861275</v>
       </c>
       <c r="F15">
-        <v>3.810416844679565</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007424126551485704</v>
+        <v>0.0007880155662842203</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.356218291458546</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3082632931680536</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.247490437795292</v>
+        <v>1.371098799566212</v>
       </c>
       <c r="L15">
-        <v>0.5197144674961081</v>
+        <v>0.2180560017769864</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.8600414840883559</v>
+      </c>
+      <c r="N15">
+        <v>2.302475257903069</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.797555044607805</v>
+        <v>5.098024576227203</v>
       </c>
       <c r="C16">
-        <v>1.252101571702838</v>
+        <v>0.81715786462496</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1784677037534195</v>
+        <v>0.01954130673326304</v>
       </c>
       <c r="F16">
-        <v>3.543264079070752</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.000749388691967608</v>
+        <v>0.0007952506627366899</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.214035732697113</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2929589188059154</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.157813834414526</v>
+        <v>1.276312654985048</v>
       </c>
       <c r="L16">
-        <v>0.4829930680255714</v>
+        <v>0.2056214106607115</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8038249314278687</v>
+      </c>
+      <c r="N16">
+        <v>2.280437126597747</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.62149875856727</v>
+        <v>4.877683975237005</v>
       </c>
       <c r="C17">
-        <v>1.192399066631253</v>
+        <v>0.7783133607905768</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1705951446081855</v>
+        <v>0.01918486869776892</v>
       </c>
       <c r="F17">
-        <v>3.382362601914167</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007536718575622003</v>
+        <v>0.0007996990898007095</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.129063241005966</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2839213129544973</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.103700015949187</v>
+        <v>1.219221924369037</v>
       </c>
       <c r="L17">
-        <v>0.4607876979828376</v>
+        <v>0.1981400567537577</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7699739696601853</v>
+      </c>
+      <c r="N17">
+        <v>2.268205447266411</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.521157784876152</v>
+        <v>4.752339358984045</v>
       </c>
       <c r="C18">
-        <v>1.158437797753948</v>
+        <v>0.7562092995178489</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1660950406945219</v>
+        <v>0.01898310261137137</v>
       </c>
       <c r="F18">
-        <v>3.290823573616876</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.0007561382813865553</v>
+        <v>0.0008022627967399203</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.080950486338253</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.27884142616346</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.072875679143152</v>
+        <v>1.186741241417081</v>
       </c>
       <c r="L18">
-        <v>0.4481232221660321</v>
+        <v>0.1938870460643471</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.75071903637307</v>
+      </c>
+      <c r="N18">
+        <v>2.261613119135632</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.487334133332183</v>
+        <v>4.710127514159524</v>
       </c>
       <c r="C19">
-        <v>1.147000604506275</v>
+        <v>0.7487640544154601</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1645759301389091</v>
+        <v>0.01891531199408814</v>
       </c>
       <c r="F19">
-        <v>3.259994866085719</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.0007569739993509519</v>
+        <v>0.0008031318274754895</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.064785118198657</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2771408262677042</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.062487998934202</v>
+        <v>1.175802159553882</v>
       </c>
       <c r="L19">
-        <v>0.4438527304760669</v>
+        <v>0.1924552972578937</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7442349529995695</v>
+      </c>
+      <c r="N19">
+        <v>2.259454436647616</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.640142837914482</v>
+        <v>4.900993162320162</v>
       </c>
       <c r="C20">
-        <v>1.198714549956549</v>
+        <v>0.7824232547803831</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1714302333572562</v>
+        <v>0.01922246782403736</v>
       </c>
       <c r="F20">
-        <v>3.3993846253139</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007532156444205462</v>
+        <v>0.0007992250516131714</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.13802849411762</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2848709063423271</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.109428771879649</v>
+        <v>1.22526174716964</v>
       </c>
       <c r="L20">
-        <v>0.4631401400551169</v>
+        <v>0.1989311933091926</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7735547845759143</v>
+      </c>
+      <c r="N20">
+        <v>2.269461024394417</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.165229001879538</v>
+        <v>5.559740690055094</v>
       </c>
       <c r="C21">
-        <v>1.377254141927949</v>
+        <v>0.898527438264324</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1948144460437575</v>
+        <v>0.02029598079406103</v>
       </c>
       <c r="F21">
-        <v>3.880392811299998</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007406113548841818</v>
+        <v>0.0007861494319674441</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.393680788085391</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3123324990578524</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.270947612498063</v>
+        <v>1.395925553451931</v>
       </c>
       <c r="L21">
-        <v>0.5293041861485293</v>
+        <v>0.2213151451698678</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8747681465488171</v>
+      </c>
+      <c r="N21">
+        <v>2.308589516098266</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.518696026644989</v>
+        <v>6.005384275745257</v>
       </c>
       <c r="C22">
-        <v>1.498170364006114</v>
+        <v>0.9770610846459817</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2104109351099837</v>
+        <v>0.02103518814525085</v>
       </c>
       <c r="F22">
-        <v>4.205769161738544</v>
+        <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>0.0007323645225294346</v>
+        <v>0.0007776167610974465</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.569036940113165</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3315767481937115</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.379866508181223</v>
+        <v>1.511362221257045</v>
       </c>
       <c r="L22">
-        <v>0.5737477552348125</v>
+        <v>0.2364777328414931</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9432492339149618</v>
+      </c>
+      <c r="N22">
+        <v>2.338788695934483</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.328990934964793</v>
+        <v>5.766007380541566</v>
       </c>
       <c r="C23">
-        <v>1.433201758907217</v>
+        <v>0.9348751478118515</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2020547055381314</v>
+        <v>0.02063674803916893</v>
       </c>
       <c r="F23">
-        <v>4.03099396475443</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.0007367687028526708</v>
+        <v>0.0007821713325691216</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.474609452979479</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3211740262609979</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.321390863650905</v>
+        <v>1.449356323135845</v>
       </c>
       <c r="L23">
-        <v>0.5499044278057355</v>
+        <v>0.2283317358923398</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9064641231879236</v>
+      </c>
+      <c r="N23">
+        <v>2.322211275307239</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.63171114240663</v>
+        <v>4.890450958250199</v>
       </c>
       <c r="C24">
-        <v>1.195858199836209</v>
+        <v>0.7805644665785678</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1710526096267344</v>
+        <v>0.01920545952175168</v>
       </c>
       <c r="F24">
-        <v>3.39168598297897</v>
+        <v>2.170038921572882</v>
       </c>
       <c r="G24">
-        <v>0.0007534218856541336</v>
+        <v>0.0007994393445227435</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.133973016787735</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2844412365267246</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.106837916289919</v>
+        <v>1.222530087043808</v>
       </c>
       <c r="L24">
-        <v>0.4620762868152042</v>
+        <v>0.1985733715096956</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7719352595048505</v>
+      </c>
+      <c r="N24">
+        <v>2.268892015160361</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.91400541432273</v>
+        <v>3.998030286084884</v>
       </c>
       <c r="C25">
-        <v>0.9539597081825661</v>
+        <v>0.6230129581924757</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1386548781882944</v>
+        <v>0.0177825437086585</v>
       </c>
       <c r="F25">
-        <v>2.739765847149698</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0007715082831027784</v>
+        <v>0.0008182735270359569</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.795044582008842</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2492489471159836</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8866279314096346</v>
+        <v>0.9911938451017335</v>
       </c>
       <c r="L25">
-        <v>0.3713495320436593</v>
+        <v>0.1683521426234975</v>
       </c>
       <c r="M25">
+        <v>0.6348839548713983</v>
+      </c>
+      <c r="N25">
+        <v>2.228040450775055</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.373657392007544</v>
+        <v>2.227384343473318</v>
       </c>
       <c r="C2">
-        <v>0.5123559886259557</v>
+        <v>0.3027977341166661</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01680284175455116</v>
+        <v>0.04876499206580931</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0008324631506232346</v>
+        <v>0.2137034382271921</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1877048111672153</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1609878537150067</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8291599833961243</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1473281355047931</v>
+        <v>0.2999553647183006</v>
       </c>
       <c r="M2">
-        <v>0.5390801169692736</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2.20933911453092</v>
+        <v>0.8243507103736505</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.7966578920104439</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.96597734234274</v>
+        <v>1.939525820035698</v>
       </c>
       <c r="C3">
-        <v>0.4397584397829633</v>
+        <v>0.2808808551107376</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.01616716390575501</v>
+        <v>0.04755209244651226</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008423399232157066</v>
+        <v>0.1985698818469999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.185783628658065</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1651442566170616</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7232235233410478</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1336852924370291</v>
+        <v>0.2635450808209328</v>
       </c>
       <c r="M3">
-        <v>0.4765864145357028</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.202550695732057</v>
+        <v>0.8109348457615653</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.7602301697131679</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.721889126733174</v>
+        <v>1.762652593482045</v>
       </c>
       <c r="C4">
-        <v>0.3961006289532065</v>
+        <v>0.267399714430681</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01578695114022199</v>
+        <v>0.04690406969428906</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008485496435163642</v>
+        <v>0.189889478568567</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1850067567690559</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1682328556655364</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6597221237043414</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1255614396617659</v>
+        <v>0.2413835370304156</v>
       </c>
       <c r="M4">
-        <v>0.4392023720805511</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>2.200942736792697</v>
+        <v>0.8034765485752118</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.739994829525628</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.623801679821668</v>
+        <v>1.690530409288897</v>
       </c>
       <c r="C5">
-        <v>0.3785053757722494</v>
+        <v>0.2618996117012244</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01563404882083619</v>
+        <v>0.04666340023979387</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008511189617749932</v>
+        <v>0.1864966753724033</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.1847873222483187</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.169620847496823</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6341842260275854</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1223084129727994</v>
+        <v>0.2323969178630136</v>
       </c>
       <c r="M5">
-        <v>0.4241880263985749</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>2.200885355791002</v>
+        <v>0.8006270311701371</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7322564146729889</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.607592600460862</v>
+        <v>1.678551500210546</v>
       </c>
       <c r="C6">
-        <v>0.3755945537109255</v>
+        <v>0.2609859256960334</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01560876898535746</v>
+        <v>0.04662482485368002</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008515480014357444</v>
+        <v>0.1859417685229872</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.184756635442362</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.1698589772896693</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6299628368619921</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1217715560567996</v>
+        <v>0.2309072494342388</v>
       </c>
       <c r="M6">
-        <v>0.421707411272827</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>2.200910675663735</v>
+        <v>0.800165161637409</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7310013123588845</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.720560928840371</v>
+        <v>1.761680126864889</v>
       </c>
       <c r="C7">
-        <v>0.395862584869036</v>
+        <v>0.2673255646050592</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01578488141761891</v>
+        <v>0.0469007303554978</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0008485841342943742</v>
+        <v>0.1898431488095369</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.1850034093772237</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.1682510580085843</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6593763975542331</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1255173430048444</v>
+        <v>0.2412621664335433</v>
       </c>
       <c r="M7">
-        <v>0.4389990283289507</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>2.200939599743563</v>
+        <v>0.8034373583436221</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7398884476470045</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.231678975323575</v>
+        <v>2.128148897540314</v>
       </c>
       <c r="C8">
-        <v>0.4871117683083526</v>
+        <v>0.2952455482696053</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.01658124404375716</v>
+        <v>0.04832615413503483</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0008358399207120203</v>
+        <v>0.2083527292114553</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.1869562596276637</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1623062083701718</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7922817532528939</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.142567749575683</v>
+        <v>0.287357928148154</v>
       </c>
       <c r="M8">
-        <v>0.5173094639246116</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>2.206438104919755</v>
+        <v>0.8195594381963502</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.7836378106702568</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.292835112686305</v>
+        <v>2.846450122591364</v>
       </c>
       <c r="C9">
-        <v>0.6751149349261993</v>
+        <v>0.3498275104816742</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.01824916636746776</v>
+        <v>0.05193162978326704</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0008118878677476553</v>
+        <v>0.2499425317395847</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1941765789264522</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1551666902192963</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.067639325115223</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.17831796657007</v>
+        <v>0.3795137538800333</v>
       </c>
       <c r="M9">
-        <v>0.6801461644194973</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>2.239855565983802</v>
+        <v>0.8576500198780934</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.8876827413411519</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.123363874857034</v>
+        <v>3.375017161987273</v>
       </c>
       <c r="C10">
-        <v>0.8216242448176274</v>
+        <v>0.3898645505360321</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.01958244570770518</v>
+        <v>0.05513692042184815</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0007947436540512157</v>
+        <v>0.2843679934757262</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.2018339182455549</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1530545756540036</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.282877675021808</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2064821456871044</v>
+        <v>0.4486212765330606</v>
       </c>
       <c r="M10">
-        <v>0.8077180366057704</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>2.281895018650744</v>
+        <v>0.8900167721726717</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.9772133520716011</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.516220075097067</v>
+        <v>3.615908708730785</v>
       </c>
       <c r="C11">
-        <v>0.8908584109943547</v>
+        <v>0.4080744764650603</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.02022437564334201</v>
+        <v>0.05673038823552545</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007869954116172807</v>
+        <v>0.301020149265014</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.2058953216621973</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1528624949488737</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.384651805677109</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2198350805406477</v>
+        <v>0.4804413310156406</v>
       </c>
       <c r="M11">
-        <v>0.8680807282332523</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>2.305795893050856</v>
+        <v>0.9057951181067665</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.021245748573136</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.667540136825039</v>
+        <v>3.707213445228035</v>
       </c>
       <c r="C12">
-        <v>0.9175233920817618</v>
+        <v>0.4149704962426597</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.02047378333873962</v>
+        <v>0.0573545257619763</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007840640103629141</v>
+        <v>0.3074818548315079</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2075223344673702</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1529081334114757</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.423849874098664</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2249818171342071</v>
+        <v>0.4925525001782063</v>
       </c>
       <c r="M12">
-        <v>0.8913329932797041</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>2.31563063529947</v>
+        <v>0.911930628915016</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.038435595341724</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.634830189759157</v>
+        <v>3.687545241687985</v>
       </c>
       <c r="C13">
-        <v>0.9117593721023241</v>
+        <v>0.4134852877940602</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.02041976560260306</v>
+        <v>0.0572191639886519</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.0007846953014840138</v>
+        <v>0.306083057315476</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2071678694300942</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.152892909957437</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.415376767056799</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2238691414770955</v>
+        <v>0.4899412940777665</v>
       </c>
       <c r="M13">
-        <v>0.8863066266426074</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>2.313475968093513</v>
+        <v>0.9106019461138999</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.034709844162194</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.528615628036846</v>
+        <v>3.623418590854328</v>
       </c>
       <c r="C14">
-        <v>0.8930427095226321</v>
+        <v>0.4086418051252281</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.02024475996416353</v>
+        <v>0.05678131356536298</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007867542185766735</v>
+        <v>0.3015485543527348</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2060273570844373</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1528638307407633</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.387862809675568</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2202566182942576</v>
+        <v>0.4814364503681929</v>
       </c>
       <c r="M14">
-        <v>0.8699854332317543</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>2.306588680011743</v>
+        <v>0.9062966185373398</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.022649390282083</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.463901366956236</v>
+        <v>3.584150785094437</v>
       </c>
       <c r="C15">
-        <v>0.88163894351149</v>
+        <v>0.4056750975341288</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.02013842784861275</v>
+        <v>0.05651585522787173</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0007880155662842203</v>
+        <v>0.298791750393633</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2053405391004333</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1528616750896887</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.371098799566212</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2180560017769864</v>
+        <v>0.4762352131489394</v>
       </c>
       <c r="M15">
-        <v>0.8600414840883559</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>2.302475257903069</v>
+        <v>0.9036806700042206</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.015330424244013</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.098024576227203</v>
+        <v>3.359284980702</v>
       </c>
       <c r="C16">
-        <v>0.81715786462496</v>
+        <v>0.388674489585469</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.01954130673326304</v>
+        <v>0.05503561366361254</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.0007952506627366899</v>
+        <v>0.2833008102265779</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2015806259366428</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1530832567034999</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.276312654985048</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2056214106607115</v>
+        <v>0.4465500143932104</v>
       </c>
       <c r="M16">
-        <v>0.8038249314278687</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>2.280437126597747</v>
+        <v>0.8890075933010735</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.9744056361480204</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.877683975237005</v>
+        <v>3.221464855600914</v>
       </c>
       <c r="C17">
-        <v>0.7783133607905768</v>
+        <v>0.3782448838508685</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.01918486869776892</v>
+        <v>0.05416307946005361</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007996990898007095</v>
+        <v>0.2740608430830065</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1994261940240136</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1534215123553402</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.219221924369037</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1981400567537577</v>
+        <v>0.4284416706812664</v>
       </c>
       <c r="M17">
-        <v>0.7699739696601853</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>2.268205447266411</v>
+        <v>0.8802824316443463</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.9501740395792808</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.752339358984045</v>
+        <v>3.142234810921082</v>
       </c>
       <c r="C18">
-        <v>0.7562092995178489</v>
+        <v>0.3722457053690391</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.01898310261137137</v>
+        <v>0.05367388270074436</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0008022627967399203</v>
+        <v>0.2688387738696818</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1982410540117101</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.15368792968383</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.186741241417081</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1938870460643471</v>
+        <v>0.4180618336160791</v>
       </c>
       <c r="M18">
-        <v>0.75071903637307</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>2.261613119135632</v>
+        <v>0.8753626411203896</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.9365451276804606</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.710127514159524</v>
+        <v>3.115415226125435</v>
       </c>
       <c r="C19">
-        <v>0.7487640544154601</v>
+        <v>0.3702144054580572</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.01891531199408814</v>
+        <v>0.05351038644899653</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.0008031318274754895</v>
+        <v>0.2670861693677935</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1978488913808221</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1537902449593282</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.175802159553882</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1924552972578937</v>
+        <v>0.4145533205061867</v>
       </c>
       <c r="M19">
-        <v>0.7442349529995695</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>2.259454436647616</v>
+        <v>0.8737135709426695</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.9319823953006221</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.900993162320162</v>
+        <v>3.236131713540601</v>
       </c>
       <c r="C20">
-        <v>0.7824232547803831</v>
+        <v>0.3793551636416908</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.01922246782403736</v>
+        <v>0.05425464284703807</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007992250516131714</v>
+        <v>0.2750347848102166</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.1996499030792194</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.15337801175707</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.22526174716964</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1989311933091926</v>
+        <v>0.430365603688287</v>
       </c>
       <c r="M20">
-        <v>0.7735547845759143</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>2.269461024394417</v>
+        <v>0.8812009626512634</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.9527213239265393</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.559740690055094</v>
+        <v>3.642251682255392</v>
       </c>
       <c r="C21">
-        <v>0.898527438264324</v>
+        <v>0.4100644382708651</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.02029598079406103</v>
+        <v>0.05690934797009461</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007861494319674441</v>
+        <v>0.3028761069893449</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.2063598874259469</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1528690946448954</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.395925553451931</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2213151451698678</v>
+        <v>0.4839328026834693</v>
       </c>
       <c r="M21">
-        <v>0.8747681465488171</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>2.308589516098266</v>
+        <v>0.9075567651177181</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.026177505369077</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.005384275745257</v>
+        <v>3.908176827326031</v>
       </c>
       <c r="C22">
-        <v>0.9770610846459817</v>
+        <v>0.430136987188888</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.02103518814525085</v>
+        <v>0.05876579207277999</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007776167610974465</v>
+        <v>0.3219874588413774</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.2112673066870059</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1532304389788237</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.511362221257045</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2364777328414931</v>
+        <v>0.5193045059493784</v>
       </c>
       <c r="M22">
-        <v>0.9432492339149618</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>2.338788695934483</v>
+        <v>0.9257224153285222</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.077212118379634</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.766007380541566</v>
+        <v>3.766194409990987</v>
       </c>
       <c r="C23">
-        <v>0.9348751478118515</v>
+        <v>0.4194234064850093</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.02063674803916893</v>
+        <v>0.05776342657997446</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0007821713325691216</v>
+        <v>0.3116990061103166</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2085983010191654</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1529713772042207</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.449356323135845</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2283317358923398</v>
+        <v>0.5003905147039518</v>
       </c>
       <c r="M23">
-        <v>0.9064641231879236</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>2.322211275307239</v>
+        <v>0.9159379000716683</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.049682972226947</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.890450958250199</v>
+        <v>3.229500814328844</v>
       </c>
       <c r="C24">
-        <v>0.7805644665785678</v>
+        <v>0.3788532157340967</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.01920545952175168</v>
+        <v>0.05421320840278909</v>
       </c>
       <c r="F24">
-        <v>2.170038921572882</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007994393445227435</v>
+        <v>0.2745941860737702</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.1995485981071994</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.1533974548575934</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.222530087043808</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1985733715096956</v>
+        <v>0.4294956978494611</v>
       </c>
       <c r="M24">
-        <v>0.7719352595048505</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>2.268892015160361</v>
+        <v>0.880785395123425</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.9515687585631838</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.998030286084884</v>
+        <v>2.652064384782591</v>
       </c>
       <c r="C25">
-        <v>0.6230129581924757</v>
+        <v>0.3350759925775293</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0177825437086585</v>
+        <v>0.0508632524638184</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0008182735270359569</v>
+        <v>0.2380605618433549</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.1918317814808788</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1565764996859897</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9911938451017335</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1683521426234975</v>
+        <v>0.3543619517204633</v>
       </c>
       <c r="M25">
-        <v>0.6348839548713983</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>2.228040450775055</v>
+        <v>0.8466090305557827</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.8573858589680299</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.227384343473318</v>
+        <v>0.8254428142286088</v>
       </c>
       <c r="C2">
-        <v>0.3027977341166661</v>
+        <v>0.2424580644419336</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04876499206580931</v>
+        <v>0.1069071643241379</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.2137034382271921</v>
+        <v>0.290181421261515</v>
       </c>
       <c r="H2">
-        <v>0.1877048111672153</v>
+        <v>0.4623243076471582</v>
       </c>
       <c r="I2">
-        <v>0.1609878537150067</v>
+        <v>0.4265733295288108</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2999553647183006</v>
+        <v>0.2037260455224867</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8243507103736505</v>
+        <v>1.001352606265726</v>
       </c>
       <c r="O2">
-        <v>0.7966578920104439</v>
+        <v>1.430463394040743</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.939525820035698</v>
+        <v>0.7358950841335172</v>
       </c>
       <c r="C3">
-        <v>0.2808808551107376</v>
+        <v>0.2352112924915559</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04755209244651226</v>
+        <v>0.1075126439755465</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.1985698818469999</v>
+        <v>0.2898735312658545</v>
       </c>
       <c r="H3">
-        <v>0.185783628658065</v>
+        <v>0.4656236401718417</v>
       </c>
       <c r="I3">
-        <v>0.1651442566170616</v>
+        <v>0.4322234351431611</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2635450808209328</v>
+        <v>0.1944001279181009</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8109348457615653</v>
+        <v>0.9994073682988898</v>
       </c>
       <c r="O3">
-        <v>0.7602301697131679</v>
+        <v>1.436479102087787</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.762652593482045</v>
+        <v>0.68084298382513</v>
       </c>
       <c r="C4">
-        <v>0.267399714430681</v>
+        <v>0.2307465325923914</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04690406969428906</v>
+        <v>0.1079436946287675</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.189889478568567</v>
+        <v>0.2899478489832674</v>
       </c>
       <c r="H4">
-        <v>0.1850067567690559</v>
+        <v>0.467888091564042</v>
       </c>
       <c r="I4">
-        <v>0.1682328556655364</v>
+        <v>0.4359770983620148</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2413835370304156</v>
+        <v>0.1887693035894671</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8034765485752118</v>
+        <v>0.9985864717116755</v>
       </c>
       <c r="O4">
-        <v>0.739994829525628</v>
+        <v>1.441222295312329</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.690530409288897</v>
+        <v>0.6583931096625975</v>
       </c>
       <c r="C5">
-        <v>0.2618996117012244</v>
+        <v>0.2289234599382297</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04666340023979387</v>
+        <v>0.1081342678188033</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.1864966753724033</v>
+        <v>0.2900442364953264</v>
       </c>
       <c r="H5">
-        <v>0.1847873222483187</v>
+        <v>0.4688709000664986</v>
       </c>
       <c r="I5">
-        <v>0.169620847496823</v>
+        <v>0.4375782141929054</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2323969178630136</v>
+        <v>0.1864988012629709</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8006270311701371</v>
+        <v>0.998346195654932</v>
       </c>
       <c r="O5">
-        <v>0.7322564146729889</v>
+        <v>1.443418865170415</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.678551500210546</v>
+        <v>0.6546644290600909</v>
       </c>
       <c r="C6">
-        <v>0.2609859256960334</v>
+        <v>0.2286205251194247</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04662482485368002</v>
+        <v>0.1081668135437575</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.1859417685229872</v>
+        <v>0.2900642303939804</v>
       </c>
       <c r="H6">
-        <v>0.184756635442362</v>
+        <v>0.4690377205828042</v>
       </c>
       <c r="I6">
-        <v>0.1698589772896693</v>
+        <v>0.4378483927817101</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2309072494342388</v>
+        <v>0.1861232458525706</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.800165161637409</v>
+        <v>0.9983119999918131</v>
       </c>
       <c r="O6">
-        <v>0.7310013123588845</v>
+        <v>1.44379952275753</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.761680126864889</v>
+        <v>0.6805402781877774</v>
       </c>
       <c r="C7">
-        <v>0.2673255646050592</v>
+        <v>0.2307219605248605</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0469007303554978</v>
+        <v>0.1079462043565158</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.1898431488095369</v>
+        <v>0.2899488814155049</v>
       </c>
       <c r="H7">
-        <v>0.1850034093772237</v>
+        <v>0.467901102997935</v>
       </c>
       <c r="I7">
-        <v>0.1682510580085843</v>
+        <v>0.435998402288039</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2412621664335433</v>
+        <v>0.1887385850260159</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8034373583436221</v>
+        <v>0.9985828492263664</v>
       </c>
       <c r="O7">
-        <v>0.7398884476470045</v>
+        <v>1.441250851698442</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.128148897540314</v>
+        <v>0.7945821969410076</v>
       </c>
       <c r="C8">
-        <v>0.2952455482696053</v>
+        <v>0.2399626396640997</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04832615413503483</v>
+        <v>0.107103634782673</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.2083527292114553</v>
+        <v>0.2900205251478596</v>
       </c>
       <c r="H8">
-        <v>0.1869562596276637</v>
+        <v>0.4634123956227683</v>
       </c>
       <c r="I8">
-        <v>0.1623062083701718</v>
+        <v>0.4284624037269573</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.287357928148154</v>
+        <v>0.2004907609972122</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8195594381963502</v>
+        <v>1.00060456459012</v>
       </c>
       <c r="O8">
-        <v>0.7836378106702568</v>
+        <v>1.432319639797782</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.846450122591364</v>
+        <v>1.017600340701335</v>
       </c>
       <c r="C9">
-        <v>0.3498275104816742</v>
+        <v>0.25795587458461</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05193162978326704</v>
+        <v>0.1059214076163464</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.2499425317395847</v>
+        <v>0.2922567402804717</v>
       </c>
       <c r="H9">
-        <v>0.1941765789264522</v>
+        <v>0.4565030759508701</v>
       </c>
       <c r="I9">
-        <v>0.1551666902192963</v>
+        <v>0.4159444246601289</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3795137538800333</v>
+        <v>0.2242885843422897</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8576500198780934</v>
+        <v>1.007519421790278</v>
       </c>
       <c r="O9">
-        <v>0.8876827413411519</v>
+        <v>1.423145016604025</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.375017161987273</v>
+        <v>1.181001092253439</v>
       </c>
       <c r="C10">
-        <v>0.3898645505360321</v>
+        <v>0.27108947553549</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05513692042184815</v>
+        <v>0.1053390157484628</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.2843679934757262</v>
+        <v>0.2951864307365639</v>
       </c>
       <c r="H10">
-        <v>0.2018339182455549</v>
+        <v>0.4525803608331813</v>
       </c>
       <c r="I10">
-        <v>0.1530545756540036</v>
+        <v>0.4081291899397925</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4486212765330606</v>
+        <v>0.2422270677968754</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8900167721726717</v>
+        <v>1.014382536456068</v>
       </c>
       <c r="O10">
-        <v>0.9772133520716011</v>
+        <v>1.421507109936982</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.615908708730785</v>
+        <v>1.255223710777045</v>
       </c>
       <c r="C11">
-        <v>0.4080744764650603</v>
+        <v>0.2770439567402434</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05673038823552545</v>
+        <v>0.1051361427356952</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.301020149265014</v>
+        <v>0.2968006193682129</v>
       </c>
       <c r="H11">
-        <v>0.2058953216621973</v>
+        <v>0.4510462231733641</v>
       </c>
       <c r="I11">
-        <v>0.1528624949488737</v>
+        <v>0.4048747020259214</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4804413310156406</v>
+        <v>0.2504856170171905</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9057951181067665</v>
+        <v>1.017888700603081</v>
       </c>
       <c r="O11">
-        <v>1.021245748573136</v>
+        <v>1.42187412167678</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.707213445228035</v>
+        <v>1.283312591610184</v>
       </c>
       <c r="C12">
-        <v>0.4149704962426597</v>
+        <v>0.2792957138318855</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0573545257619763</v>
+        <v>0.1050682367252485</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.3074818548315079</v>
+        <v>0.2974524871383295</v>
       </c>
       <c r="H12">
-        <v>0.2075223344673702</v>
+        <v>0.450501273157073</v>
       </c>
       <c r="I12">
-        <v>0.1529081334114757</v>
+        <v>0.403685626053182</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4925525001782063</v>
+        <v>0.25362693204859</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.911930628915016</v>
+        <v>1.019271339359207</v>
       </c>
       <c r="O12">
-        <v>1.038435595341724</v>
+        <v>1.422173310440286</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.687545241687985</v>
+        <v>1.277263962317932</v>
       </c>
       <c r="C13">
-        <v>0.4134852877940602</v>
+        <v>0.2788108974822308</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0572191639886519</v>
+        <v>0.1050824649929041</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.306083057315476</v>
+        <v>0.2973102874758524</v>
       </c>
       <c r="H13">
-        <v>0.2071678694300942</v>
+        <v>0.4506170370538314</v>
       </c>
       <c r="I13">
-        <v>0.152892909957437</v>
+        <v>0.4039397864298628</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4899412940777665</v>
+        <v>0.2529497741368942</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9106019461138999</v>
+        <v>1.01897112508577</v>
       </c>
       <c r="O13">
-        <v>1.034709844162194</v>
+        <v>1.422101744849584</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.623418590854328</v>
+        <v>1.257534963850674</v>
       </c>
       <c r="C14">
-        <v>0.4086418051252281</v>
+        <v>0.2772292728867285</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05678131356536298</v>
+        <v>0.1051303773834498</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.3015485543527348</v>
+        <v>0.2968534342707017</v>
       </c>
       <c r="H14">
-        <v>0.2060273570844373</v>
+        <v>0.4510006684325845</v>
       </c>
       <c r="I14">
-        <v>0.1528638307407633</v>
+        <v>0.4047760071740925</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4814364503681929</v>
+        <v>0.2507437755174777</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9062966185373398</v>
+        <v>1.01800135195397</v>
       </c>
       <c r="O14">
-        <v>1.022649390282083</v>
+        <v>1.421895523632372</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.584150785094437</v>
+        <v>1.245448032121146</v>
       </c>
       <c r="C15">
-        <v>0.4056750975341288</v>
+        <v>0.2762600759422469</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05651585522787173</v>
+        <v>0.1051608862438371</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.298791750393633</v>
+        <v>0.2965788910740486</v>
       </c>
       <c r="H15">
-        <v>0.2053405391004333</v>
+        <v>0.4512403412342536</v>
       </c>
       <c r="I15">
-        <v>0.1528616750896887</v>
+        <v>0.4052938616916535</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4762352131489394</v>
+        <v>0.249394354163087</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9036806700042206</v>
+        <v>1.017414482577976</v>
       </c>
       <c r="O15">
-        <v>1.015330424244013</v>
+        <v>1.421790079723962</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.359284980702</v>
+        <v>1.176148108719133</v>
       </c>
       <c r="C16">
-        <v>0.388674489585469</v>
+        <v>0.2706999161765964</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05503561366361254</v>
+        <v>0.1053535222250908</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.2833008102265779</v>
+        <v>0.2950866150484046</v>
       </c>
       <c r="H16">
-        <v>0.2015806259366428</v>
+        <v>0.4526856573652509</v>
       </c>
       <c r="I16">
-        <v>0.1530832567034999</v>
+        <v>0.4083479367513547</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4465500143932104</v>
+        <v>0.2416893166557657</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8890075933010735</v>
+        <v>1.014161103478102</v>
       </c>
       <c r="O16">
-        <v>0.9744056361480204</v>
+        <v>1.421505528119127</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.221464855600914</v>
+        <v>1.133605520182584</v>
       </c>
       <c r="C17">
-        <v>0.3782448838508685</v>
+        <v>0.2672836642560412</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05416307946005361</v>
+        <v>0.1054875885853015</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.2740608430830065</v>
+        <v>0.2942433375851365</v>
       </c>
       <c r="H17">
-        <v>0.1994261940240136</v>
+        <v>0.4536364250167537</v>
       </c>
       <c r="I17">
-        <v>0.1534215123553402</v>
+        <v>0.410298592161503</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4284416706812664</v>
+        <v>0.2369875847471121</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8802824316443463</v>
+        <v>1.01226342109932</v>
       </c>
       <c r="O17">
-        <v>0.9501740395792808</v>
+        <v>1.421616009021676</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.142234810921082</v>
+        <v>1.109125983746992</v>
       </c>
       <c r="C18">
-        <v>0.3722457053690391</v>
+        <v>0.2653168497737681</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05367388270074436</v>
+        <v>0.1055705417880208</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.2688387738696818</v>
+        <v>0.2937847907780053</v>
       </c>
       <c r="H18">
-        <v>0.1982410540117101</v>
+        <v>0.4542068433249753</v>
       </c>
       <c r="I18">
-        <v>0.15368792968383</v>
+        <v>0.4114488558214795</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4180618336160791</v>
+        <v>0.2342925287576776</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8753626411203896</v>
+        <v>1.011208095386323</v>
       </c>
       <c r="O18">
-        <v>0.9365451276804606</v>
+        <v>1.421784214056316</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.115415226125435</v>
+        <v>1.100835945807376</v>
       </c>
       <c r="C19">
-        <v>0.3702144054580572</v>
+        <v>0.2646506036890059</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05351038644899653</v>
+        <v>0.1055996318456547</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.2670861693677935</v>
+        <v>0.2936340791976093</v>
       </c>
       <c r="H19">
-        <v>0.1978488913808221</v>
+        <v>0.4544040239968865</v>
       </c>
       <c r="I19">
-        <v>0.1537902449593282</v>
+        <v>0.4118431729127607</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4145533205061867</v>
+        <v>0.2333816232334271</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8737135709426695</v>
+        <v>1.010857001926041</v>
       </c>
       <c r="O19">
-        <v>0.9319823953006221</v>
+        <v>1.42185913183252</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.236131713540601</v>
+        <v>1.138135317218655</v>
       </c>
       <c r="C20">
-        <v>0.3793551636416908</v>
+        <v>0.2676475257266873</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05425464284703807</v>
+        <v>0.105472712437475</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.2750347848102166</v>
+        <v>0.294330363915023</v>
       </c>
       <c r="H20">
-        <v>0.1996499030792194</v>
+        <v>0.4535327756209</v>
       </c>
       <c r="I20">
-        <v>0.15337801175707</v>
+        <v>0.4100880121639179</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.430365603688287</v>
+        <v>0.2374871352426737</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8812009626512634</v>
+        <v>1.012461691270119</v>
       </c>
       <c r="O20">
-        <v>0.9527213239265393</v>
+        <v>1.421593414177863</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.642251682255392</v>
+        <v>1.263330342185725</v>
       </c>
       <c r="C21">
-        <v>0.4100644382708651</v>
+        <v>0.2776939193635144</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05690934797009461</v>
+        <v>0.1051160623846989</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.3028761069893449</v>
+        <v>0.2969865199209352</v>
       </c>
       <c r="H21">
-        <v>0.2063598874259469</v>
+        <v>0.4508870097292288</v>
       </c>
       <c r="I21">
-        <v>0.1528690946448954</v>
+        <v>0.4045292122684785</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4839328026834693</v>
+        <v>0.2513913524906144</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9075567651177181</v>
+        <v>1.018284709421351</v>
       </c>
       <c r="O21">
-        <v>1.026177505369077</v>
+        <v>1.421951745471517</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.908176827326031</v>
+        <v>1.345048976484748</v>
       </c>
       <c r="C22">
-        <v>0.430136987188888</v>
+        <v>0.284241802528129</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05876579207277999</v>
+        <v>0.1049349464037164</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.3219874588413774</v>
+        <v>0.2989592371948504</v>
       </c>
       <c r="H22">
-        <v>0.2112673066870059</v>
+        <v>0.4493676520067709</v>
       </c>
       <c r="I22">
-        <v>0.1532304389788237</v>
+        <v>0.4011488039331006</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5193045059493784</v>
+        <v>0.2605599901648503</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9257224153285222</v>
+        <v>1.022410428049298</v>
       </c>
       <c r="O22">
-        <v>1.077212118379634</v>
+        <v>1.423119890642511</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.766194409990987</v>
+        <v>1.301444308800058</v>
       </c>
       <c r="C23">
-        <v>0.4194234064850093</v>
+        <v>0.2807487854863666</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05776342657997446</v>
+        <v>0.1050268578519677</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.3116990061103166</v>
+        <v>0.2978846521488805</v>
       </c>
       <c r="H23">
-        <v>0.2085983010191654</v>
+        <v>0.4501593654523077</v>
       </c>
       <c r="I23">
-        <v>0.1529713772042207</v>
+        <v>0.4029298508464656</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5003905147039518</v>
+        <v>0.2556591132747741</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9159379000716683</v>
+        <v>1.020179269524519</v>
       </c>
       <c r="O23">
-        <v>1.049682972226947</v>
+        <v>1.422410877700941</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.229500814328844</v>
+        <v>1.136087461977752</v>
       </c>
       <c r="C24">
-        <v>0.3788532157340967</v>
+        <v>0.2674830325556172</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05421320840278909</v>
+        <v>0.1054794196384918</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.2745941860737702</v>
+        <v>0.2942909375101408</v>
       </c>
       <c r="H24">
-        <v>0.1995485981071994</v>
+        <v>0.4535795613478797</v>
       </c>
       <c r="I24">
-        <v>0.1533974548575934</v>
+        <v>0.4101831256595254</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4294956978494611</v>
+        <v>0.2372612634341635</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.880785395123425</v>
+        <v>1.012371942171129</v>
       </c>
       <c r="O24">
-        <v>0.9515687585631838</v>
+        <v>1.421603303234178</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.652064384782591</v>
+        <v>0.9573418291083726</v>
       </c>
       <c r="C25">
-        <v>0.3350759925775293</v>
+        <v>0.2531027473726368</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0508632524638184</v>
+        <v>0.1061909466462136</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.2380605618433549</v>
+        <v>0.2914264741208825</v>
       </c>
       <c r="H25">
-        <v>0.1918317814808788</v>
+        <v>0.4581696178555106</v>
       </c>
       <c r="I25">
-        <v>0.1565764996859897</v>
+        <v>0.419088505419321</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3543619517204633</v>
+        <v>0.2177705767815468</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8466090305557827</v>
+        <v>1.005334573183177</v>
       </c>
       <c r="O25">
-        <v>0.8573858589680299</v>
+        <v>1.424732251527175</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8254428142286088</v>
+        <v>2.227384343473375</v>
       </c>
       <c r="C2">
-        <v>0.2424580644419336</v>
+        <v>0.3027977341171919</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1069071643241379</v>
+        <v>0.04876499206580931</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.290181421261515</v>
+        <v>0.2137034382272063</v>
       </c>
       <c r="H2">
-        <v>0.4623243076471582</v>
+        <v>0.1877048111672153</v>
       </c>
       <c r="I2">
-        <v>0.4265733295288108</v>
+        <v>0.1609878537149996</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2037260455224867</v>
+        <v>0.2999553647183575</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.001352606265726</v>
+        <v>0.8243507103735936</v>
       </c>
       <c r="O2">
-        <v>1.430463394040743</v>
+        <v>0.7966578920104297</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7358950841335172</v>
+        <v>1.939525820035698</v>
       </c>
       <c r="C3">
-        <v>0.2352112924915559</v>
+        <v>0.2808808551107234</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1075126439755465</v>
+        <v>0.04755209244653891</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.2898735312658545</v>
+        <v>0.1985698818470283</v>
       </c>
       <c r="H3">
-        <v>0.4656236401718417</v>
+        <v>0.1857836286581787</v>
       </c>
       <c r="I3">
-        <v>0.4322234351431611</v>
+        <v>0.1651442566170651</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1944001279181009</v>
+        <v>0.2635450808210038</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9994073682988898</v>
+        <v>0.8109348457615653</v>
       </c>
       <c r="O3">
-        <v>1.436479102087787</v>
+        <v>0.7602301697131253</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.68084298382513</v>
+        <v>1.762652593482073</v>
       </c>
       <c r="C4">
-        <v>0.2307465325923914</v>
+        <v>0.2673997144308942</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1079436946287675</v>
+        <v>0.04690406969431749</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.2899478489832674</v>
+        <v>0.1898894785685741</v>
       </c>
       <c r="H4">
-        <v>0.467888091564042</v>
+        <v>0.1850067567690559</v>
       </c>
       <c r="I4">
-        <v>0.4359770983620148</v>
+        <v>0.1682328556655328</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1887693035894671</v>
+        <v>0.2413835370302593</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9985864717116755</v>
+        <v>0.8034765485751905</v>
       </c>
       <c r="O4">
-        <v>1.441222295312329</v>
+        <v>0.7399948295256138</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6583931096625975</v>
+        <v>1.690530409288897</v>
       </c>
       <c r="C5">
-        <v>0.2289234599382297</v>
+        <v>0.2618996117014234</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1081342678188033</v>
+        <v>0.04666340023979565</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.2900442364953264</v>
+        <v>0.1864966753724815</v>
       </c>
       <c r="H5">
-        <v>0.4688709000664986</v>
+        <v>0.1847873222483187</v>
       </c>
       <c r="I5">
-        <v>0.4375782141929054</v>
+        <v>0.169620847496839</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1864988012629709</v>
+        <v>0.2323969178629994</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.998346195654932</v>
+        <v>0.8006270311701371</v>
       </c>
       <c r="O5">
-        <v>1.443418865170415</v>
+        <v>0.7322564146729889</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6546644290600909</v>
+        <v>1.678551500210517</v>
       </c>
       <c r="C6">
-        <v>0.2286205251194247</v>
+        <v>0.2609859256960902</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1081668135437575</v>
+        <v>0.0466248248536445</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.2900642303939804</v>
+        <v>0.1859417685230014</v>
       </c>
       <c r="H6">
-        <v>0.4690377205828042</v>
+        <v>0.1847566354424757</v>
       </c>
       <c r="I6">
-        <v>0.4378483927817101</v>
+        <v>0.1698589772896746</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1861232458525706</v>
+        <v>0.2309072494342246</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9983119999918131</v>
+        <v>0.800165161637409</v>
       </c>
       <c r="O6">
-        <v>1.44379952275753</v>
+        <v>0.7310013123588988</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6805402781877774</v>
+        <v>1.761680126864889</v>
       </c>
       <c r="C7">
-        <v>0.2307219605248605</v>
+        <v>0.2673255646053434</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1079462043565158</v>
+        <v>0.04690073035552089</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.2899488814155049</v>
+        <v>0.1898431488095937</v>
       </c>
       <c r="H7">
-        <v>0.467901102997935</v>
+        <v>0.1850034093772308</v>
       </c>
       <c r="I7">
-        <v>0.435998402288039</v>
+        <v>0.1682510580085843</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1887385850260159</v>
+        <v>0.2412621664335717</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9985828492263664</v>
+        <v>0.8034373583435652</v>
       </c>
       <c r="O7">
-        <v>1.441250851698442</v>
+        <v>0.7398884476469334</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7945821969410076</v>
+        <v>2.128148897540314</v>
       </c>
       <c r="C8">
-        <v>0.2399626396640997</v>
+        <v>0.2952455482696905</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.107103634782673</v>
+        <v>0.04832615413507568</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.2900205251478596</v>
+        <v>0.2083527292115122</v>
       </c>
       <c r="H8">
-        <v>0.4634123956227683</v>
+        <v>0.1869562596277845</v>
       </c>
       <c r="I8">
-        <v>0.4284624037269573</v>
+        <v>0.1623062083701541</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2004907609972122</v>
+        <v>0.2873579281482108</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.00060456459012</v>
+        <v>0.8195594381963645</v>
       </c>
       <c r="O8">
-        <v>1.432319639797782</v>
+        <v>0.7836378106703279</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.017600340701335</v>
+        <v>2.846450122591193</v>
       </c>
       <c r="C9">
-        <v>0.25795587458461</v>
+        <v>0.3498275104813615</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1059214076163464</v>
+        <v>0.05193162978327948</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.2922567402804717</v>
+        <v>0.2499425317395207</v>
       </c>
       <c r="H9">
-        <v>0.4565030759508701</v>
+        <v>0.1941765789264451</v>
       </c>
       <c r="I9">
-        <v>0.4159444246601289</v>
+        <v>0.1551666902192963</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2242885843422897</v>
+        <v>0.3795137538800049</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.007519421790278</v>
+        <v>0.8576500198780792</v>
       </c>
       <c r="O9">
-        <v>1.423145016604025</v>
+        <v>0.8876827413412087</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.181001092253439</v>
+        <v>3.375017161987273</v>
       </c>
       <c r="C10">
-        <v>0.27108947553549</v>
+        <v>0.389864550536231</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1053390157484628</v>
+        <v>0.05513692042187657</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.2951864307365639</v>
+        <v>0.2843679934757262</v>
       </c>
       <c r="H10">
-        <v>0.4525803608331813</v>
+        <v>0.2018339182456828</v>
       </c>
       <c r="I10">
-        <v>0.4081291899397925</v>
+        <v>0.1530545756540178</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2422270677968754</v>
+        <v>0.4486212765330748</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.014382536456068</v>
+        <v>0.8900167721726717</v>
       </c>
       <c r="O10">
-        <v>1.421507109936982</v>
+        <v>0.9772133520715443</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.255223710777045</v>
+        <v>3.615908708730842</v>
       </c>
       <c r="C11">
-        <v>0.2770439567402434</v>
+        <v>0.4080744764648898</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1051361427356952</v>
+        <v>0.05673038823552545</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.2968006193682129</v>
+        <v>0.3010201492649855</v>
       </c>
       <c r="H11">
-        <v>0.4510462231733641</v>
+        <v>0.2058953216621973</v>
       </c>
       <c r="I11">
-        <v>0.4048747020259214</v>
+        <v>0.1528624949488631</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2504856170171905</v>
+        <v>0.48044133101574</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.017888700603081</v>
+        <v>0.9057951181067665</v>
       </c>
       <c r="O11">
-        <v>1.42187412167678</v>
+        <v>1.021245748573193</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.283312591610184</v>
+        <v>3.707213445228149</v>
       </c>
       <c r="C12">
-        <v>0.2792957138318855</v>
+        <v>0.4149704962426881</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1050682367252485</v>
+        <v>0.05735452576199052</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.2974524871383295</v>
+        <v>0.3074818548315079</v>
       </c>
       <c r="H12">
-        <v>0.450501273157073</v>
+        <v>0.2075223344673702</v>
       </c>
       <c r="I12">
-        <v>0.403685626053182</v>
+        <v>0.1529081334114721</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.25362693204859</v>
+        <v>0.4925525001781637</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.019271339359207</v>
+        <v>0.911930628915016</v>
       </c>
       <c r="O12">
-        <v>1.422173310440286</v>
+        <v>1.038435595341724</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.277263962317932</v>
+        <v>3.687545241688099</v>
       </c>
       <c r="C13">
-        <v>0.2788108974822308</v>
+        <v>0.4134852877944297</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1050824649929041</v>
+        <v>0.05721916398864835</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.2973102874758524</v>
+        <v>0.3060830573155613</v>
       </c>
       <c r="H13">
-        <v>0.4506170370538314</v>
+        <v>0.20716786943008</v>
       </c>
       <c r="I13">
-        <v>0.4039397864298628</v>
+        <v>0.1528929099574334</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2529497741368942</v>
+        <v>0.4899412940778092</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.01897112508577</v>
+        <v>0.9106019461138715</v>
       </c>
       <c r="O13">
-        <v>1.422101744849584</v>
+        <v>1.034709844162137</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.257534963850674</v>
+        <v>3.623418590854101</v>
       </c>
       <c r="C14">
-        <v>0.2772292728867285</v>
+        <v>0.4086418051254554</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1051303773834498</v>
+        <v>0.05678131356536298</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.2968534342707017</v>
+        <v>0.3015485543527348</v>
       </c>
       <c r="H14">
-        <v>0.4510006684325845</v>
+        <v>0.2060273570844373</v>
       </c>
       <c r="I14">
-        <v>0.4047760071740925</v>
+        <v>0.1528638307407633</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2507437755174777</v>
+        <v>0.4814364503681929</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.01800135195397</v>
+        <v>0.9062966185372687</v>
       </c>
       <c r="O14">
-        <v>1.421895523632372</v>
+        <v>1.022649390282083</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.245448032121146</v>
+        <v>3.58415078509438</v>
       </c>
       <c r="C15">
-        <v>0.2762600759422469</v>
+        <v>0.4056750975342709</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1051608862438371</v>
+        <v>0.05651585522784686</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.2965788910740486</v>
+        <v>0.2987917503936188</v>
       </c>
       <c r="H15">
-        <v>0.4512403412342536</v>
+        <v>0.2053405391004191</v>
       </c>
       <c r="I15">
-        <v>0.4052938616916535</v>
+        <v>0.1528616750896887</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.249394354163087</v>
+        <v>0.4762352131490246</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.017414482577976</v>
+        <v>0.9036806700041495</v>
       </c>
       <c r="O15">
-        <v>1.421790079723962</v>
+        <v>1.015330424244013</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.176148108719133</v>
+        <v>3.359284980702057</v>
       </c>
       <c r="C16">
-        <v>0.2706999161765964</v>
+        <v>0.3886744895856964</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1053535222250908</v>
+        <v>0.05503561366363741</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.2950866150484046</v>
+        <v>0.283300810226649</v>
       </c>
       <c r="H16">
-        <v>0.4526856573652509</v>
+        <v>0.2015806259366428</v>
       </c>
       <c r="I16">
-        <v>0.4083479367513547</v>
+        <v>0.1530832567034821</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2416893166557657</v>
+        <v>0.4465500143931251</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.014161103478102</v>
+        <v>0.8890075933010024</v>
       </c>
       <c r="O16">
-        <v>1.421505528119127</v>
+        <v>0.974405636147992</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.133605520182584</v>
+        <v>3.221464855600857</v>
       </c>
       <c r="C17">
-        <v>0.2672836642560412</v>
+        <v>0.3782448838505843</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1054875885853015</v>
+        <v>0.05416307946005006</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.2942433375851365</v>
+        <v>0.2740608430830633</v>
       </c>
       <c r="H17">
-        <v>0.4536364250167537</v>
+        <v>0.1994261940241415</v>
       </c>
       <c r="I17">
-        <v>0.410298592161503</v>
+        <v>0.1534215123553544</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2369875847471121</v>
+        <v>0.4284416706812948</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.01226342109932</v>
+        <v>0.8802824316443179</v>
       </c>
       <c r="O17">
-        <v>1.421616009021676</v>
+        <v>0.9501740395793661</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.109125983746992</v>
+        <v>3.142234810921025</v>
       </c>
       <c r="C18">
-        <v>0.2653168497737681</v>
+        <v>0.3722457053688828</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1055705417880208</v>
+        <v>0.05367388270074613</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.2937847907780053</v>
+        <v>0.2688387738696818</v>
       </c>
       <c r="H18">
-        <v>0.4542068433249753</v>
+        <v>0.1982410540117101</v>
       </c>
       <c r="I18">
-        <v>0.4114488558214795</v>
+        <v>0.15368792968383</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2342925287576776</v>
+        <v>0.4180618336160791</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.011208095386323</v>
+        <v>0.8753626411203328</v>
       </c>
       <c r="O18">
-        <v>1.421784214056316</v>
+        <v>0.936545127680489</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.100835945807376</v>
+        <v>3.115415226125435</v>
       </c>
       <c r="C19">
-        <v>0.2646506036890059</v>
+        <v>0.3702144054579293</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1055996318456547</v>
+        <v>0.05351038644900541</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.2936340791976093</v>
+        <v>0.2670861693677722</v>
       </c>
       <c r="H19">
-        <v>0.4544040239968865</v>
+        <v>0.1978488913809358</v>
       </c>
       <c r="I19">
-        <v>0.4118431729127607</v>
+        <v>0.1537902449593211</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2333816232334271</v>
+        <v>0.4145533205061298</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.010857001926041</v>
+        <v>0.8737135709427122</v>
       </c>
       <c r="O19">
-        <v>1.42185913183252</v>
+        <v>0.9319823953006221</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.138135317218655</v>
+        <v>3.236131713540487</v>
       </c>
       <c r="C20">
-        <v>0.2676475257266873</v>
+        <v>0.379355163641776</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.105472712437475</v>
+        <v>0.05425464284703452</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.294330363915023</v>
+        <v>0.2750347848102308</v>
       </c>
       <c r="H20">
-        <v>0.4535327756209</v>
+        <v>0.1996499030792194</v>
       </c>
       <c r="I20">
-        <v>0.4100880121639179</v>
+        <v>0.1533780117570558</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2374871352426737</v>
+        <v>0.4303656036883012</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.012461691270119</v>
+        <v>0.8812009626513202</v>
       </c>
       <c r="O20">
-        <v>1.421593414177863</v>
+        <v>0.9527213239265393</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.263330342185725</v>
+        <v>3.642251682255221</v>
       </c>
       <c r="C21">
-        <v>0.2776939193635144</v>
+        <v>0.4100644382708367</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1051160623846989</v>
+        <v>0.05690934797009817</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.2969865199209352</v>
+        <v>0.3028761069894159</v>
       </c>
       <c r="H21">
-        <v>0.4508870097292288</v>
+        <v>0.2063598874259469</v>
       </c>
       <c r="I21">
-        <v>0.4045292122684785</v>
+        <v>0.1528690946449096</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2513913524906144</v>
+        <v>0.483932802683583</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.018284709421351</v>
+        <v>0.9075567651177039</v>
       </c>
       <c r="O21">
-        <v>1.421951745471517</v>
+        <v>1.026177505368963</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.345048976484748</v>
+        <v>3.908176827326031</v>
       </c>
       <c r="C22">
-        <v>0.284241802528129</v>
+        <v>0.4301369871886607</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1049349464037164</v>
+        <v>0.05876579207277999</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.2989592371948504</v>
+        <v>0.3219874588413774</v>
       </c>
       <c r="H22">
-        <v>0.4493676520067709</v>
+        <v>0.2112673066868922</v>
       </c>
       <c r="I22">
-        <v>0.4011488039331006</v>
+        <v>0.1532304389788202</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2605599901648503</v>
+        <v>0.5193045059493642</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.022410428049298</v>
+        <v>0.9257224153284653</v>
       </c>
       <c r="O22">
-        <v>1.423119890642511</v>
+        <v>1.077212118379634</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.301444308800058</v>
+        <v>3.766194409990987</v>
       </c>
       <c r="C23">
-        <v>0.2807487854863666</v>
+        <v>0.4194234064850946</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1050268578519677</v>
+        <v>0.05776342657998512</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.2978846521488805</v>
+        <v>0.3116990061102456</v>
       </c>
       <c r="H23">
-        <v>0.4501593654523077</v>
+        <v>0.2085983010191796</v>
       </c>
       <c r="I23">
-        <v>0.4029298508464656</v>
+        <v>0.1529713772042101</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2556591132747741</v>
+        <v>0.5003905147040228</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.020179269524519</v>
+        <v>0.9159379000717394</v>
       </c>
       <c r="O23">
-        <v>1.422410877700941</v>
+        <v>1.049682972226947</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.136087461977752</v>
+        <v>3.229500814328901</v>
       </c>
       <c r="C24">
-        <v>0.2674830325556172</v>
+        <v>0.3788532157341251</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1054794196384918</v>
+        <v>0.05421320840274291</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.2942909375101408</v>
+        <v>0.2745941860737702</v>
       </c>
       <c r="H24">
-        <v>0.4535795613478797</v>
+        <v>0.1995485981071994</v>
       </c>
       <c r="I24">
-        <v>0.4101831256595254</v>
+        <v>0.1533974548575898</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2372612634341635</v>
+        <v>0.4294956978494469</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.012371942171129</v>
+        <v>0.8807853951234108</v>
       </c>
       <c r="O24">
-        <v>1.421603303234178</v>
+        <v>0.9515687585631838</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9573418291083726</v>
+        <v>2.652064384782648</v>
       </c>
       <c r="C25">
-        <v>0.2531027473726368</v>
+        <v>0.3350759925773161</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1061909466462136</v>
+        <v>0.05086325246381485</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.2914264741208825</v>
+        <v>0.2380605618434117</v>
       </c>
       <c r="H25">
-        <v>0.4581696178555106</v>
+        <v>0.1918317814808717</v>
       </c>
       <c r="I25">
-        <v>0.419088505419321</v>
+        <v>0.1565764996859933</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2177705767815468</v>
+        <v>0.3543619517204633</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.005334573183177</v>
+        <v>0.8466090305558396</v>
       </c>
       <c r="O25">
-        <v>1.424732251527175</v>
+        <v>0.8573858589680441</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.227384343473375</v>
+        <v>0.9465510518191422</v>
       </c>
       <c r="C2">
-        <v>0.3027977341171919</v>
+        <v>0.09996698476025756</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04876499206580931</v>
+        <v>0.0410524550979936</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.2137034382272063</v>
+        <v>0.6462429310141147</v>
       </c>
       <c r="H2">
-        <v>0.1877048111672153</v>
+        <v>0.01070483461000068</v>
       </c>
       <c r="I2">
-        <v>0.1609878537149996</v>
+        <v>0.01249989112489969</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5110072408693895</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5456861299054054</v>
       </c>
       <c r="L2">
-        <v>0.2999553647183575</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.850663405972</v>
       </c>
       <c r="N2">
-        <v>0.8243507103735936</v>
+        <v>0.1596625006859398</v>
       </c>
       <c r="O2">
-        <v>0.7966578920104297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2119644640605394</v>
+      </c>
+      <c r="P2">
+        <v>1.150166392820331</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.939525820035698</v>
+        <v>0.8264330303559859</v>
       </c>
       <c r="C3">
-        <v>0.2808808551107234</v>
+        <v>0.08931903269127162</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04755209244653891</v>
+        <v>0.03784423996051522</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.1985698818470283</v>
+        <v>0.6296153758873686</v>
       </c>
       <c r="H3">
-        <v>0.1857836286581787</v>
+        <v>0.01328361103805278</v>
       </c>
       <c r="I3">
-        <v>0.1651442566170651</v>
+        <v>0.01533501077755783</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5078256522079556</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.541323149253035</v>
       </c>
       <c r="L3">
-        <v>0.2635450808210038</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7398898002428211</v>
       </c>
       <c r="N3">
-        <v>0.8109348457615653</v>
+        <v>0.142057055710552</v>
       </c>
       <c r="O3">
-        <v>0.7602301697131253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1859742143855598</v>
+      </c>
+      <c r="P3">
+        <v>1.184389845377176</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.762652593482073</v>
+        <v>0.7523825902099475</v>
       </c>
       <c r="C4">
-        <v>0.2673997144308942</v>
+        <v>0.08286317617168493</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04690406969431749</v>
+        <v>0.03585865937194477</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.1898894785685741</v>
+        <v>0.6197703512580546</v>
       </c>
       <c r="H4">
-        <v>0.1850067567690559</v>
+        <v>0.01507009261144185</v>
       </c>
       <c r="I4">
-        <v>0.1682328556655328</v>
+        <v>0.01732678768732443</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5061267484884624</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5388116197721899</v>
       </c>
       <c r="L4">
-        <v>0.2413835370302593</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6718411607450747</v>
       </c>
       <c r="N4">
-        <v>0.8034765485751905</v>
+        <v>0.1312626262842684</v>
       </c>
       <c r="O4">
-        <v>0.7399948295256138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1699811192562066</v>
+      </c>
+      <c r="P4">
+        <v>1.20594271564911</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.690530409288897</v>
+        <v>0.7213390204996131</v>
       </c>
       <c r="C5">
-        <v>0.2618996117014234</v>
+        <v>0.08039249652369307</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04666340023979565</v>
+        <v>0.03502167445141069</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.1864966753724815</v>
+        <v>0.6151011751567879</v>
       </c>
       <c r="H5">
-        <v>0.1847873222483187</v>
+        <v>0.01585372271573271</v>
       </c>
       <c r="I5">
-        <v>0.169620847496839</v>
+        <v>0.01829167678655708</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.505111683252494</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5372741218495172</v>
       </c>
       <c r="L5">
-        <v>0.2323969178629994</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6438568714765722</v>
       </c>
       <c r="N5">
-        <v>0.8006270311701371</v>
+        <v>0.1269180064164672</v>
       </c>
       <c r="O5">
-        <v>0.7322564146729889</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1633604302032197</v>
+      </c>
+      <c r="P5">
+        <v>1.21454814656569</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.678551500210517</v>
+        <v>0.7152126983654625</v>
       </c>
       <c r="C6">
-        <v>0.2609859256960902</v>
+        <v>0.08015830344464803</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0466248248536445</v>
+        <v>0.03485372633890726</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.1859417685230014</v>
+        <v>0.6134218921297219</v>
       </c>
       <c r="H6">
-        <v>0.1847566354424757</v>
+        <v>0.01599444089548313</v>
       </c>
       <c r="I6">
-        <v>0.1698589772896746</v>
+        <v>0.01857537939452847</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5044767228948075</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5363440967495201</v>
       </c>
       <c r="L6">
-        <v>0.2309072494342246</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6389155937796431</v>
       </c>
       <c r="N6">
-        <v>0.800165161637409</v>
+        <v>0.1262599016739614</v>
       </c>
       <c r="O6">
-        <v>0.7310013123588988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1621457359871634</v>
+      </c>
+      <c r="P6">
+        <v>1.215608939284528</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.761680126864889</v>
+        <v>0.7493146107981374</v>
       </c>
       <c r="C7">
-        <v>0.2673255646053434</v>
+        <v>0.08330895369970648</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04690073035552089</v>
+        <v>0.03576903624693983</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.1898431488095937</v>
+        <v>0.6172258040785223</v>
       </c>
       <c r="H7">
-        <v>0.1850034093772308</v>
+        <v>0.01510037360993927</v>
       </c>
       <c r="I7">
-        <v>0.1682510580085843</v>
+        <v>0.01764946452643201</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5048314437847239</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5369437977350557</v>
       </c>
       <c r="L7">
-        <v>0.2412621664335717</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6706589597626476</v>
       </c>
       <c r="N7">
-        <v>0.8034373583435652</v>
+        <v>0.1313772477850179</v>
       </c>
       <c r="O7">
-        <v>0.7398884476469334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1695776134006977</v>
+      </c>
+      <c r="P7">
+        <v>1.205050710595675</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.128148897540314</v>
+        <v>0.9016528740857552</v>
       </c>
       <c r="C8">
-        <v>0.2952455482696905</v>
+        <v>0.09691713469597829</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04832615413507568</v>
+        <v>0.03984565153801789</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.2083527292115122</v>
+        <v>0.6371606060773161</v>
       </c>
       <c r="H8">
-        <v>0.1869562596277845</v>
+        <v>0.01157261966297473</v>
       </c>
       <c r="I8">
-        <v>0.1623062083701541</v>
+        <v>0.01379553076294204</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5081739353414321</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5417181265741249</v>
       </c>
       <c r="L8">
-        <v>0.2873579281482108</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8113928895143658</v>
       </c>
       <c r="N8">
-        <v>0.8195594381963645</v>
+        <v>0.1538202951630652</v>
       </c>
       <c r="O8">
-        <v>0.7836378106703279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.2025901206220446</v>
+      </c>
+      <c r="P8">
+        <v>1.160612282715906</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.846450122591193</v>
+        <v>1.202967016610103</v>
       </c>
       <c r="C9">
-        <v>0.3498275104813615</v>
+        <v>0.1235304494047682</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05193162978327948</v>
+        <v>0.04787562388381872</v>
       </c>
       <c r="F9">
-        <v>1.895061171842812</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.2499425317395207</v>
+        <v>0.6837952510260692</v>
       </c>
       <c r="H9">
-        <v>0.1941765789264451</v>
+        <v>0.006319756509848007</v>
       </c>
       <c r="I9">
-        <v>0.1551666902192963</v>
+        <v>0.007853866384761155</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5191160976809357</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.5557640653563496</v>
       </c>
       <c r="L9">
-        <v>0.3795137538800049</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.088864888878959</v>
       </c>
       <c r="N9">
-        <v>0.8576500198780792</v>
+        <v>0.1976977050609889</v>
       </c>
       <c r="O9">
-        <v>0.8876827413412087</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2676624938451759</v>
+      </c>
+      <c r="P9">
+        <v>1.079533474419526</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.375017161987273</v>
+        <v>1.412151550367327</v>
       </c>
       <c r="C10">
-        <v>0.389864550536231</v>
+        <v>0.1453026294967827</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05513692042187657</v>
+        <v>0.05124387072549652</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.2843679934757262</v>
+        <v>0.7072160055187737</v>
       </c>
       <c r="H10">
-        <v>0.2018339182456828</v>
+        <v>0.003952252158473613</v>
       </c>
       <c r="I10">
-        <v>0.1530545756540178</v>
+        <v>0.005110460012556217</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5219441724257337</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.558047552914239</v>
       </c>
       <c r="L10">
-        <v>0.4486212765330748</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.288590074608095</v>
       </c>
       <c r="N10">
-        <v>0.8900167721726717</v>
+        <v>0.2187582861638901</v>
       </c>
       <c r="O10">
-        <v>0.9772133520715443</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.308381308650354</v>
+      </c>
+      <c r="P10">
+        <v>1.019025181707038</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.615908708730842</v>
+        <v>1.41805462243056</v>
       </c>
       <c r="C11">
-        <v>0.4080744764648898</v>
+        <v>0.1682174314667151</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05673038823552545</v>
+        <v>0.03597973816850253</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.3010201492649855</v>
+        <v>0.6158799389927623</v>
       </c>
       <c r="H11">
-        <v>0.2058953216621973</v>
+        <v>0.02266146180820883</v>
       </c>
       <c r="I11">
-        <v>0.1528624949488631</v>
+        <v>0.005113529330717625</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.471365056606416</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.4901032781236694</v>
       </c>
       <c r="L11">
-        <v>0.48044133101574</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.341499423672019</v>
       </c>
       <c r="N11">
-        <v>0.9057951181067665</v>
+        <v>0.1408281473084401</v>
       </c>
       <c r="O11">
-        <v>1.021245748573193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2688529319525479</v>
+      </c>
+      <c r="P11">
+        <v>0.9726708983460828</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.707213445228149</v>
+        <v>1.382543642498831</v>
       </c>
       <c r="C12">
-        <v>0.4149704962426881</v>
+        <v>0.1831953309615244</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05735452576199052</v>
+        <v>0.02874809331525841</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.3074818548315079</v>
+        <v>0.5425039518355277</v>
       </c>
       <c r="H12">
-        <v>0.2075223344673702</v>
+        <v>0.06164523971481373</v>
       </c>
       <c r="I12">
-        <v>0.1529081334114721</v>
+        <v>0.005078940811319654</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4322084549906435</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.4396251290192694</v>
       </c>
       <c r="L12">
-        <v>0.4925525001781637</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.344593661266657</v>
       </c>
       <c r="N12">
-        <v>0.911930628915016</v>
+        <v>0.08622365516659158</v>
       </c>
       <c r="O12">
-        <v>1.038435595341724</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2299602958167881</v>
+      </c>
+      <c r="P12">
+        <v>0.960857827992907</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.687545241688099</v>
+        <v>1.309136197850108</v>
       </c>
       <c r="C13">
-        <v>0.4134852877944297</v>
+        <v>0.1935000178601456</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05721916398864835</v>
+        <v>0.02705805570006703</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.3060830573155613</v>
+        <v>0.4746839362194493</v>
       </c>
       <c r="H13">
-        <v>0.20716786943008</v>
+        <v>0.1179124591637901</v>
       </c>
       <c r="I13">
-        <v>0.1528929099574334</v>
+        <v>0.005428488184342051</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3974554805530417</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3966495591101591</v>
       </c>
       <c r="L13">
-        <v>0.4899412940778092</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.308132440695772</v>
       </c>
       <c r="N13">
-        <v>0.9106019461138715</v>
+        <v>0.04676292521634551</v>
       </c>
       <c r="O13">
-        <v>1.034709844162137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.1890597879196676</v>
+      </c>
+      <c r="P13">
+        <v>0.9721698307208868</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.623418590854101</v>
+        <v>1.240243802789109</v>
       </c>
       <c r="C14">
-        <v>0.4086418051254554</v>
+        <v>0.1988427994300395</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05678131356536298</v>
+        <v>0.02917479005307388</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.3015485543527348</v>
+        <v>0.430143352422995</v>
       </c>
       <c r="H14">
-        <v>0.2060273570844373</v>
+        <v>0.1677107293350133</v>
       </c>
       <c r="I14">
-        <v>0.1528638307407633</v>
+        <v>0.005958648360183005</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3752678499095623</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3703452549173072</v>
       </c>
       <c r="L14">
-        <v>0.4814364503681929</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.264599465793879</v>
       </c>
       <c r="N14">
-        <v>0.9062966185372687</v>
+        <v>0.02829878453625057</v>
       </c>
       <c r="O14">
-        <v>1.022649390282083</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.1600751958691653</v>
+      </c>
+      <c r="P14">
+        <v>0.9918396130061282</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.58415078509438</v>
+        <v>1.214599090097153</v>
       </c>
       <c r="C15">
-        <v>0.4056750975342709</v>
+        <v>0.1992535855801378</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05651585522784686</v>
+        <v>0.0300521567340466</v>
       </c>
       <c r="F15">
         <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.2987917503936188</v>
+        <v>0.4192677599217589</v>
       </c>
       <c r="H15">
-        <v>0.2053405391004191</v>
+        <v>0.180424384669351</v>
       </c>
       <c r="I15">
-        <v>0.1528616750896887</v>
+        <v>0.006319494459224195</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3702057614265328</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.364558267200529</v>
       </c>
       <c r="L15">
-        <v>0.4762352131490246</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.245381960815195</v>
       </c>
       <c r="N15">
-        <v>0.9036806700041495</v>
+        <v>0.0250039967873974</v>
       </c>
       <c r="O15">
-        <v>1.015330424244013</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1522421066043655</v>
+      </c>
+      <c r="P15">
+        <v>0.9999231276119858</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.359284980702057</v>
+        <v>1.139806028526181</v>
       </c>
       <c r="C16">
-        <v>0.3886744895856964</v>
+        <v>0.1876118826154851</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05503561366363741</v>
+        <v>0.02893128588176452</v>
       </c>
       <c r="F16">
         <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.283300810226649</v>
+        <v>0.4219315167980966</v>
       </c>
       <c r="H16">
-        <v>0.2015806259366428</v>
+        <v>0.1687349569443199</v>
       </c>
       <c r="I16">
-        <v>0.1530832567034821</v>
+        <v>0.007559778131514427</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3752795294001459</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3713870181478605</v>
       </c>
       <c r="L16">
-        <v>0.4465500143931251</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.166876620680256</v>
       </c>
       <c r="N16">
-        <v>0.8890075933010024</v>
+        <v>0.02515979938264046</v>
       </c>
       <c r="O16">
-        <v>0.974405636147992</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1440844261324372</v>
+      </c>
+      <c r="P16">
+        <v>1.019674309516475</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.221464855600857</v>
+        <v>1.118709754231134</v>
       </c>
       <c r="C17">
-        <v>0.3782448838505843</v>
+        <v>0.175875281251578</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05416307946005006</v>
+        <v>0.02638800623649118</v>
       </c>
       <c r="F17">
-        <v>2.164227570872086</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.2740608430830633</v>
+        <v>0.4470956245979067</v>
       </c>
       <c r="H17">
-        <v>0.1994261940241415</v>
+        <v>0.1315287253016066</v>
       </c>
       <c r="I17">
-        <v>0.1534215123553544</v>
+        <v>0.008270768576442933</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3907585046548192</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3901424743786244</v>
       </c>
       <c r="L17">
-        <v>0.4284416706812948</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.129820081608472</v>
       </c>
       <c r="N17">
-        <v>0.8802824316443179</v>
+        <v>0.03349752004434947</v>
       </c>
       <c r="O17">
-        <v>0.9501740395793661</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1527585672351961</v>
+      </c>
+      <c r="P17">
+        <v>1.023965547594837</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.142234810921025</v>
+        <v>1.143513282880235</v>
       </c>
       <c r="C18">
-        <v>0.3722457053688828</v>
+        <v>0.162587841042793</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05367388270074613</v>
+        <v>0.02535660883025373</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.2688387738696818</v>
+        <v>0.4986228083812634</v>
       </c>
       <c r="H18">
-        <v>0.1982410540117101</v>
+        <v>0.07873362579683629</v>
       </c>
       <c r="I18">
-        <v>0.15368792968383</v>
+        <v>0.008182692050615614</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4189406489028897</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4247149477794494</v>
       </c>
       <c r="L18">
-        <v>0.4180618336160791</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.124562668622247</v>
       </c>
       <c r="N18">
-        <v>0.8753626411203328</v>
+        <v>0.05766852119429089</v>
       </c>
       <c r="O18">
-        <v>0.936545127680489</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.1785647042004683</v>
+      </c>
+      <c r="P18">
+        <v>1.021429493323797</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.115415226125435</v>
+        <v>1.199013455038568</v>
       </c>
       <c r="C19">
-        <v>0.3702144054579293</v>
+        <v>0.1507969238389819</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05351038644900541</v>
+        <v>0.03009419410469949</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.2670861693677722</v>
+        <v>0.5684530773563097</v>
       </c>
       <c r="H19">
-        <v>0.1978488913809358</v>
+        <v>0.03287145667485447</v>
       </c>
       <c r="I19">
-        <v>0.1537902449593211</v>
+        <v>0.00801375875429855</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4554709999594309</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4708866414644746</v>
       </c>
       <c r="L19">
-        <v>0.4145533205061298</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.143588370918508</v>
       </c>
       <c r="N19">
-        <v>0.8737135709427122</v>
+        <v>0.1049036713632816</v>
       </c>
       <c r="O19">
-        <v>0.9319823953006221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2182272871410724</v>
+      </c>
+      <c r="P19">
+        <v>1.023279658198827</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.236131713540487</v>
+        <v>1.348414096801662</v>
       </c>
       <c r="C20">
-        <v>0.379355163641776</v>
+        <v>0.1411446492951569</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05425464284703452</v>
+        <v>0.05001587795755391</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.2750347848102308</v>
+        <v>0.6928385218409687</v>
       </c>
       <c r="H20">
-        <v>0.1996499030792194</v>
+        <v>0.004516714361849417</v>
       </c>
       <c r="I20">
-        <v>0.1533780117570558</v>
+        <v>0.006631595402816437</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5169807406646783</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.5514675868726897</v>
       </c>
       <c r="L20">
-        <v>0.4303656036883012</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.233320547646031</v>
       </c>
       <c r="N20">
-        <v>0.8812009626513202</v>
+        <v>0.2132824791158896</v>
       </c>
       <c r="O20">
-        <v>0.9527213239265393</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2964148639384163</v>
+      </c>
+      <c r="P20">
+        <v>1.032192510425824</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.642251682255221</v>
+        <v>1.52538561300608</v>
       </c>
       <c r="C21">
-        <v>0.4100644382708367</v>
+        <v>0.1558303901168188</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05690934797009817</v>
+        <v>0.05645262192962086</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.3028761069894159</v>
+        <v>0.7316314540182844</v>
       </c>
       <c r="H21">
-        <v>0.2063598874259469</v>
+        <v>0.00257644754690034</v>
       </c>
       <c r="I21">
-        <v>0.1528690946449096</v>
+        <v>0.004698232616771492</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5298221720739633</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.5673242277915875</v>
       </c>
       <c r="L21">
-        <v>0.483932802683583</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.393841590801401</v>
       </c>
       <c r="N21">
-        <v>0.9075567651177039</v>
+        <v>0.2471556330986573</v>
       </c>
       <c r="O21">
-        <v>1.026177505368963</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3384494848658548</v>
+      </c>
+      <c r="P21">
+        <v>0.9927356193792489</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.908176827326031</v>
+        <v>1.639557692837286</v>
       </c>
       <c r="C22">
-        <v>0.4301369871886607</v>
+        <v>0.1656315254058711</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05876579207277999</v>
+        <v>0.05951404822723916</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.3219874588413774</v>
+        <v>0.7546343183990984</v>
       </c>
       <c r="H22">
-        <v>0.2112673066868922</v>
+        <v>0.00171017949783292</v>
       </c>
       <c r="I22">
-        <v>0.1532304389788202</v>
+        <v>0.003423420100906682</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5370656824757418</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.5761084877171569</v>
       </c>
       <c r="L22">
-        <v>0.5193045059493642</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.497963590252027</v>
       </c>
       <c r="N22">
-        <v>0.9257224153284653</v>
+        <v>0.2632773777808097</v>
       </c>
       <c r="O22">
-        <v>1.077212118379634</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3628727717262947</v>
+      </c>
+      <c r="P22">
+        <v>0.966728350896755</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.766194409990987</v>
+        <v>1.581868393915329</v>
       </c>
       <c r="C23">
-        <v>0.4194234064850946</v>
+        <v>0.1597898282447119</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05776342657998512</v>
+        <v>0.05797194881056278</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.3116990061102456</v>
+        <v>0.7451746099659431</v>
       </c>
       <c r="H23">
-        <v>0.2085983010191796</v>
+        <v>0.002141763260975815</v>
       </c>
       <c r="I23">
-        <v>0.1529713772042101</v>
+        <v>0.003740531574924155</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5346303691254803</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.5735094450602247</v>
       </c>
       <c r="L23">
-        <v>0.5003905147040228</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.443365621388352</v>
       </c>
       <c r="N23">
-        <v>0.9159379000717394</v>
+        <v>0.254452559557734</v>
       </c>
       <c r="O23">
-        <v>1.049682972226947</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3502198554559612</v>
+      </c>
+      <c r="P23">
+        <v>0.9814094265330304</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.229500814328901</v>
+        <v>1.358118687667115</v>
       </c>
       <c r="C24">
-        <v>0.3788532157341251</v>
+        <v>0.1389819353642423</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05421320840274291</v>
+        <v>0.05199764404501295</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.2745941860737702</v>
+        <v>0.7059932864268745</v>
       </c>
       <c r="H24">
-        <v>0.1995485981071994</v>
+        <v>0.004283496054647951</v>
       </c>
       <c r="I24">
-        <v>0.1533974548575898</v>
+        <v>0.006056553148532373</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5237876553533312</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.5608560211587204</v>
       </c>
       <c r="L24">
-        <v>0.4294956978494469</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.23552111764397</v>
       </c>
       <c r="N24">
-        <v>0.8807853951234108</v>
+        <v>0.2214943256725945</v>
       </c>
       <c r="O24">
-        <v>0.9515687585631838</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.3017258809262273</v>
+      </c>
+      <c r="P24">
+        <v>1.036933705945646</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.652064384782648</v>
+        <v>1.116776877359086</v>
       </c>
       <c r="C25">
-        <v>0.3350759925773161</v>
+        <v>0.1171139120256157</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05086325246381485</v>
+        <v>0.04556998672144807</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.2380605618434117</v>
+        <v>0.6663729010737853</v>
       </c>
       <c r="H25">
-        <v>0.1918317814808717</v>
+        <v>0.007570050210920554</v>
       </c>
       <c r="I25">
-        <v>0.1565764996859933</v>
+        <v>0.009732154891640477</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5136424663913459</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.5485209290039847</v>
       </c>
       <c r="L25">
-        <v>0.3543619517204633</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.012255749843376</v>
       </c>
       <c r="N25">
-        <v>0.8466090305558396</v>
+        <v>0.1861213949762757</v>
       </c>
       <c r="O25">
-        <v>0.8573858589680441</v>
+        <v>0.2494973278126764</v>
+      </c>
+      <c r="P25">
+        <v>1.099446819700525</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9465510518191422</v>
+        <v>0.8860012949322424</v>
       </c>
       <c r="C2">
-        <v>0.09996698476025756</v>
+        <v>0.1015325288202575</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0410524550979936</v>
+        <v>0.03995778525145788</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.6462429310141147</v>
+        <v>0.5568276648244392</v>
       </c>
       <c r="H2">
-        <v>0.01070483461000068</v>
+        <v>0.008534602522570864</v>
       </c>
       <c r="I2">
-        <v>0.01249989112489969</v>
+        <v>0.009081679246134122</v>
       </c>
       <c r="J2">
-        <v>0.5110072408693895</v>
+        <v>0.475880801968728</v>
       </c>
       <c r="K2">
-        <v>0.5456861299054054</v>
+        <v>0.4737209577131694</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2044023252914116</v>
       </c>
       <c r="M2">
-        <v>0.850663405972</v>
+        <v>0.1529602027047794</v>
       </c>
       <c r="N2">
-        <v>0.1596625006859398</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2119644640605394</v>
+        <v>0.8374704154089159</v>
       </c>
       <c r="P2">
-        <v>1.150166392820331</v>
+        <v>0.1701826283790737</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.20489182001727</v>
+      </c>
+      <c r="R2">
+        <v>1.080866879216152</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8264330303559859</v>
+        <v>0.7763206929261059</v>
       </c>
       <c r="C3">
-        <v>0.08931903269127162</v>
+        <v>0.08881837546513793</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03784423996051522</v>
+        <v>0.03715551241828585</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.6296153758873686</v>
+        <v>0.5493496007605927</v>
       </c>
       <c r="H3">
-        <v>0.01328361103805278</v>
+        <v>0.01064349275862186</v>
       </c>
       <c r="I3">
-        <v>0.01533501077755783</v>
+        <v>0.0111638568325052</v>
       </c>
       <c r="J3">
-        <v>0.5078256522079556</v>
+        <v>0.4720036152235707</v>
       </c>
       <c r="K3">
-        <v>0.541323149253035</v>
+        <v>0.4737852170359957</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2084112907910054</v>
       </c>
       <c r="M3">
-        <v>0.7398898002428211</v>
+        <v>0.1506469176286576</v>
       </c>
       <c r="N3">
-        <v>0.142057055710552</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1859742143855598</v>
+        <v>0.7298541707403672</v>
       </c>
       <c r="P3">
-        <v>1.184389845377176</v>
+        <v>0.1520479981192651</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1801454213449354</v>
+      </c>
+      <c r="R3">
+        <v>1.113115280989388</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7523825902099475</v>
+        <v>0.7084808520504851</v>
       </c>
       <c r="C4">
-        <v>0.08286317617168493</v>
+        <v>0.081146401456067</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03585865937194477</v>
+        <v>0.03541583714082286</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.6197703512580546</v>
+        <v>0.5451136557981968</v>
       </c>
       <c r="H4">
-        <v>0.01507009261144185</v>
+        <v>0.01210811552307567</v>
       </c>
       <c r="I4">
-        <v>0.01732678768732443</v>
+        <v>0.01264602994699171</v>
       </c>
       <c r="J4">
-        <v>0.5061267484884624</v>
+        <v>0.4696458812855155</v>
       </c>
       <c r="K4">
-        <v>0.5388116197721899</v>
+        <v>0.4739020243567609</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2108819582991792</v>
       </c>
       <c r="M4">
-        <v>0.6718411607450747</v>
+        <v>0.1497867400266077</v>
       </c>
       <c r="N4">
-        <v>0.1312626262842684</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1699811192562066</v>
+        <v>0.6636367563170182</v>
       </c>
       <c r="P4">
-        <v>1.20594271564911</v>
+        <v>0.1409399863097534</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1648919877130801</v>
+      </c>
+      <c r="R4">
+        <v>1.13350915753676</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7213390204996131</v>
+        <v>0.6799703332193587</v>
       </c>
       <c r="C5">
-        <v>0.08039249652369307</v>
+        <v>0.07820535831213959</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03502167445141069</v>
+        <v>0.03467997596497874</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.6151011751567879</v>
+        <v>0.5428119432098981</v>
       </c>
       <c r="H5">
-        <v>0.01585372271573271</v>
+        <v>0.01275152771823174</v>
       </c>
       <c r="I5">
-        <v>0.01829167678655708</v>
+        <v>0.01340217146401734</v>
       </c>
       <c r="J5">
-        <v>0.505111683252494</v>
+        <v>0.4683303697883616</v>
       </c>
       <c r="K5">
-        <v>0.5372741218495172</v>
+        <v>0.4734818120498012</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.211656881300339</v>
       </c>
       <c r="M5">
-        <v>0.6438568714765722</v>
+        <v>0.1494460669284337</v>
       </c>
       <c r="N5">
-        <v>0.1269180064164672</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1633604302032197</v>
+        <v>0.6363841610352381</v>
       </c>
       <c r="P5">
-        <v>1.21454814656569</v>
+        <v>0.1364689694371748</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1585717259695798</v>
+      </c>
+      <c r="R5">
+        <v>1.141751411002774</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7152126983654625</v>
+        <v>0.6743237063915899</v>
       </c>
       <c r="C6">
-        <v>0.08015830344464803</v>
+        <v>0.07790879946482221</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03485372633890726</v>
+        <v>0.03453081312063055</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.6134218921297219</v>
+        <v>0.5416289151852212</v>
       </c>
       <c r="H6">
-        <v>0.01599444089548313</v>
+        <v>0.01286728890552753</v>
       </c>
       <c r="I6">
-        <v>0.01857537939452847</v>
+        <v>0.01366473962105363</v>
       </c>
       <c r="J6">
-        <v>0.5044767228948075</v>
+        <v>0.4676726859530547</v>
       </c>
       <c r="K6">
-        <v>0.5363440967495201</v>
+        <v>0.4728199187336095</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2115007359503629</v>
       </c>
       <c r="M6">
-        <v>0.6389155937796431</v>
+        <v>0.1492380305967753</v>
       </c>
       <c r="N6">
-        <v>0.1262599016739614</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1621457359871634</v>
+        <v>0.6315763416716607</v>
       </c>
       <c r="P6">
-        <v>1.215608939284528</v>
+        <v>0.1357880901935502</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1574124574882205</v>
+      </c>
+      <c r="R6">
+        <v>1.142870287045952</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7493146107981374</v>
+        <v>0.7049574909945591</v>
       </c>
       <c r="C7">
-        <v>0.08330895369970648</v>
+        <v>0.08130803958509603</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03576903624693983</v>
+        <v>0.03537146112041789</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.6172258040785223</v>
+        <v>0.545106232415641</v>
       </c>
       <c r="H7">
-        <v>0.01510037360993927</v>
+        <v>0.01214238873597001</v>
       </c>
       <c r="I7">
-        <v>0.01764946452643201</v>
+        <v>0.01301452349274435</v>
       </c>
       <c r="J7">
-        <v>0.5048314437847239</v>
+        <v>0.4638533984975197</v>
       </c>
       <c r="K7">
-        <v>0.5369437977350557</v>
+        <v>0.4715402686282282</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.209786037669776</v>
       </c>
       <c r="M7">
-        <v>0.6706589597626476</v>
+        <v>0.1491207320236239</v>
       </c>
       <c r="N7">
-        <v>0.1313772477850179</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1695776134006977</v>
+        <v>0.661299160474357</v>
       </c>
       <c r="P7">
-        <v>1.205050710595675</v>
+        <v>0.1409964268357555</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.16438742235378</v>
+      </c>
+      <c r="R7">
+        <v>1.132607317475234</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9016528740857552</v>
+        <v>0.8427692783074292</v>
       </c>
       <c r="C8">
-        <v>0.09691713469597829</v>
+        <v>0.09674067187179958</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03984565153801789</v>
+        <v>0.03902884060924272</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.6371606060773161</v>
+        <v>0.5587222723103906</v>
       </c>
       <c r="H8">
-        <v>0.01157261966297473</v>
+        <v>0.009268182438854189</v>
       </c>
       <c r="I8">
-        <v>0.01379553076294204</v>
+        <v>0.01020693122222038</v>
       </c>
       <c r="J8">
-        <v>0.5081739353414321</v>
+        <v>0.4581231447721237</v>
       </c>
       <c r="K8">
-        <v>0.5417181265741249</v>
+        <v>0.4692132680378904</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2038209479901489</v>
       </c>
       <c r="M8">
-        <v>0.8113928895143658</v>
+        <v>0.1506209489633683</v>
       </c>
       <c r="N8">
-        <v>0.1538202951630652</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.2025901206220446</v>
+        <v>0.795332795335753</v>
       </c>
       <c r="P8">
-        <v>1.160612282715906</v>
+        <v>0.1639801168089008</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1955676429380944</v>
+      </c>
+      <c r="R8">
+        <v>1.090169579002143</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.202967016610103</v>
+        <v>1.116023010921879</v>
       </c>
       <c r="C9">
-        <v>0.1235304494047682</v>
+        <v>0.1284266595590253</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04787562388381872</v>
+        <v>0.04605485786086838</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.6837952510260692</v>
+        <v>0.5842385657232541</v>
       </c>
       <c r="H9">
-        <v>0.006319756509848007</v>
+        <v>0.00498880554949338</v>
       </c>
       <c r="I9">
-        <v>0.007853866384761155</v>
+        <v>0.005814888733360668</v>
       </c>
       <c r="J9">
-        <v>0.5191160976809357</v>
+        <v>0.4653800104951387</v>
       </c>
       <c r="K9">
-        <v>0.5557640653563496</v>
+        <v>0.4708313201681875</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1946767996741094</v>
       </c>
       <c r="M9">
-        <v>1.088864888878959</v>
+        <v>0.1596958042919567</v>
       </c>
       <c r="N9">
-        <v>0.1976977050609889</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2676624938451759</v>
+        <v>1.063031052673978</v>
       </c>
       <c r="P9">
-        <v>1.079533474419526</v>
+        <v>0.2091942214740214</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2572526503762163</v>
+      </c>
+      <c r="R9">
+        <v>1.013992357438273</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.412151550367327</v>
+        <v>1.301523737312635</v>
       </c>
       <c r="C10">
-        <v>0.1453026294967827</v>
+        <v>0.1521101118368762</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05124387072549652</v>
+        <v>0.0490378253486945</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.7072160055187737</v>
+        <v>0.6079267233501895</v>
       </c>
       <c r="H10">
-        <v>0.003952252158473613</v>
+        <v>0.003140393487248705</v>
       </c>
       <c r="I10">
-        <v>0.005110460012556217</v>
+        <v>0.003964912090689943</v>
       </c>
       <c r="J10">
-        <v>0.5219441724257337</v>
+        <v>0.4415170739166285</v>
       </c>
       <c r="K10">
-        <v>0.558047552914239</v>
+        <v>0.4616653218520526</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1841931854146956</v>
       </c>
       <c r="M10">
-        <v>1.288590074608095</v>
+        <v>0.1648032495887755</v>
       </c>
       <c r="N10">
-        <v>0.2187582861638901</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.308381308650354</v>
+        <v>1.248219494899871</v>
       </c>
       <c r="P10">
-        <v>1.019025181707038</v>
+        <v>0.2306237508395697</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2949422475892405</v>
+      </c>
+      <c r="R10">
+        <v>0.9591860253154492</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.41805462243056</v>
+        <v>1.30667587744847</v>
       </c>
       <c r="C11">
-        <v>0.1682174314667151</v>
+        <v>0.1708750914130093</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03597973816850253</v>
+        <v>0.0348517618881985</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.6158799389927623</v>
+        <v>0.5569778189536407</v>
       </c>
       <c r="H11">
-        <v>0.02266146180820883</v>
+        <v>0.02191097723775925</v>
       </c>
       <c r="I11">
-        <v>0.005113529330717625</v>
+        <v>0.004279273080593171</v>
       </c>
       <c r="J11">
-        <v>0.471365056606416</v>
+        <v>0.3617580097901367</v>
       </c>
       <c r="K11">
-        <v>0.4901032781236694</v>
+        <v>0.400485367284567</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1601705274329461</v>
       </c>
       <c r="M11">
-        <v>1.341499423672019</v>
+        <v>0.1440257412960513</v>
       </c>
       <c r="N11">
-        <v>0.1408281473084401</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2688529319525479</v>
+        <v>1.286716255526841</v>
       </c>
       <c r="P11">
-        <v>0.9726708983460828</v>
+        <v>0.1496095957412891</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2556659454016952</v>
+      </c>
+      <c r="R11">
+        <v>0.9378219623642217</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.382543642498831</v>
+        <v>1.277835597052274</v>
       </c>
       <c r="C12">
-        <v>0.1831953309615244</v>
+        <v>0.1825096363636618</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.02874809331525841</v>
+        <v>0.02810719836076103</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.5425039518355277</v>
+        <v>0.5056997716856984</v>
       </c>
       <c r="H12">
-        <v>0.06164523971481373</v>
+        <v>0.06087838812193525</v>
       </c>
       <c r="I12">
-        <v>0.005078940811319654</v>
+        <v>0.004267944262441148</v>
       </c>
       <c r="J12">
-        <v>0.4322084549906435</v>
+        <v>0.3227689167760346</v>
       </c>
       <c r="K12">
-        <v>0.4396251290192694</v>
+        <v>0.3599975142063236</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.145863531732866</v>
       </c>
       <c r="M12">
-        <v>1.344593661266657</v>
+        <v>0.1284131265069952</v>
       </c>
       <c r="N12">
-        <v>0.08622365516659158</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2299602958167881</v>
+        <v>1.285246982467868</v>
       </c>
       <c r="P12">
-        <v>0.960857827992907</v>
+        <v>0.09287473147631431</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2180439291173997</v>
+      </c>
+      <c r="R12">
+        <v>0.9452333437159233</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.309136197850108</v>
+        <v>1.219062326519264</v>
       </c>
       <c r="C13">
-        <v>0.1935000178601456</v>
+        <v>0.1912232485233147</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.02705805570006703</v>
+        <v>0.02669223652844455</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.4746839362194493</v>
+        <v>0.4441775490796331</v>
       </c>
       <c r="H13">
-        <v>0.1179124591637901</v>
+        <v>0.1170495251863883</v>
       </c>
       <c r="I13">
-        <v>0.005428488184342051</v>
+        <v>0.004486601362120091</v>
       </c>
       <c r="J13">
-        <v>0.3974554805530417</v>
+        <v>0.3079121707667376</v>
       </c>
       <c r="K13">
-        <v>0.3966495591101591</v>
+        <v>0.3305061045872861</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1364277331297927</v>
       </c>
       <c r="M13">
-        <v>1.308132440695772</v>
+        <v>0.115558924721384</v>
       </c>
       <c r="N13">
-        <v>0.04676292521634551</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.1890597879196676</v>
+        <v>1.254864297591382</v>
       </c>
       <c r="P13">
-        <v>0.9721698307208868</v>
+        <v>0.05185593661019894</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.1793889378993541</v>
+      </c>
+      <c r="R13">
+        <v>0.968991485718746</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.240243802789109</v>
+        <v>1.163739538946061</v>
       </c>
       <c r="C14">
-        <v>0.1988427994300395</v>
+        <v>0.1963096730547846</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.02917479005307388</v>
+        <v>0.02901048091904368</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.430143352422995</v>
+        <v>0.3985087724044618</v>
       </c>
       <c r="H14">
-        <v>0.1677107293350133</v>
+        <v>0.166740546938783</v>
       </c>
       <c r="I14">
-        <v>0.005958648360183005</v>
+        <v>0.00486306240600598</v>
       </c>
       <c r="J14">
-        <v>0.3752678499095623</v>
+        <v>0.3052441109957442</v>
       </c>
       <c r="K14">
-        <v>0.3703452549173072</v>
+        <v>0.3143421059676204</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.131594647137538</v>
       </c>
       <c r="M14">
-        <v>1.264599465793879</v>
+        <v>0.1078791077445764</v>
       </c>
       <c r="N14">
-        <v>0.02829878453625057</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1600751958691653</v>
+        <v>1.220153955875446</v>
       </c>
       <c r="P14">
-        <v>0.9918396130061282</v>
+        <v>0.03254214461973248</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1522769418385508</v>
+      </c>
+      <c r="R14">
+        <v>0.9925625310958068</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.214599090097153</v>
+        <v>1.14292559742708</v>
       </c>
       <c r="C15">
-        <v>0.1992535855801378</v>
+        <v>0.1970747569265257</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0300521567340466</v>
+        <v>0.02997822192555066</v>
       </c>
       <c r="F15">
         <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.4192677599217589</v>
+        <v>0.3854360414951543</v>
       </c>
       <c r="H15">
-        <v>0.180424384669351</v>
+        <v>0.1794030339374046</v>
       </c>
       <c r="I15">
-        <v>0.006319494459224195</v>
+        <v>0.005168698205104683</v>
       </c>
       <c r="J15">
-        <v>0.3702057614265328</v>
+        <v>0.3075308127652079</v>
       </c>
       <c r="K15">
-        <v>0.364558267200529</v>
+        <v>0.3115406768457802</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1308827339085941</v>
       </c>
       <c r="M15">
-        <v>1.245381960815195</v>
+        <v>0.1062728825037809</v>
       </c>
       <c r="N15">
-        <v>0.0250039967873974</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1522421066043655</v>
+        <v>1.205049417699769</v>
       </c>
       <c r="P15">
-        <v>0.9999231276119858</v>
+        <v>0.02909300826350147</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.145056011535253</v>
+      </c>
+      <c r="R15">
+        <v>0.9999419587564731</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.139806028526181</v>
+        <v>1.08085159536202</v>
       </c>
       <c r="C16">
-        <v>0.1876118826154851</v>
+        <v>0.1887809259137327</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.02893128588176452</v>
+        <v>0.02919738960155716</v>
       </c>
       <c r="F16">
         <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.4219315167980966</v>
+        <v>0.3723646361995208</v>
       </c>
       <c r="H16">
-        <v>0.1687349569443199</v>
+        <v>0.1674571244422083</v>
       </c>
       <c r="I16">
-        <v>0.007559778131514427</v>
+        <v>0.006050065957838413</v>
       </c>
       <c r="J16">
-        <v>0.3752795294001459</v>
+        <v>0.3376086657396726</v>
       </c>
       <c r="K16">
-        <v>0.3713870181478605</v>
+        <v>0.3231350356264837</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1357950138735315</v>
       </c>
       <c r="M16">
-        <v>1.166876620680256</v>
+        <v>0.1090029855889547</v>
       </c>
       <c r="N16">
-        <v>0.02515979938264046</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1440844261324372</v>
+        <v>1.142730565127209</v>
       </c>
       <c r="P16">
-        <v>1.019674309516475</v>
+        <v>0.02959252325027784</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1383493342154836</v>
+      </c>
+      <c r="R16">
+        <v>1.007406216631743</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.118709754231134</v>
+        <v>1.061439440209909</v>
       </c>
       <c r="C17">
-        <v>0.175875281251578</v>
+        <v>0.1789540857456444</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.02638800623649118</v>
+        <v>0.02664827969488925</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.4470956245979067</v>
+        <v>0.3873667840068151</v>
       </c>
       <c r="H17">
-        <v>0.1315287253016066</v>
+        <v>0.1301124832575908</v>
       </c>
       <c r="I17">
-        <v>0.008270768576442933</v>
+        <v>0.006571744607500207</v>
       </c>
       <c r="J17">
-        <v>0.3907585046548192</v>
+        <v>0.3625064395529378</v>
       </c>
       <c r="K17">
-        <v>0.3901424743786244</v>
+        <v>0.3404711176245776</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1425513024187879</v>
       </c>
       <c r="M17">
-        <v>1.129820081608472</v>
+        <v>0.1147452031314771</v>
       </c>
       <c r="N17">
-        <v>0.03349752004434947</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1527585672351961</v>
+        <v>1.111444976336713</v>
       </c>
       <c r="P17">
-        <v>1.023965547594837</v>
+        <v>0.03865172448449172</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1471307038939393</v>
+      </c>
+      <c r="R17">
+        <v>1.003304626161174</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.143513282880235</v>
+        <v>1.080027732457296</v>
       </c>
       <c r="C18">
-        <v>0.162587841042793</v>
+        <v>0.1672844290475552</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.02535660883025373</v>
+        <v>0.02526148224601954</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.4986228083812634</v>
+        <v>0.4269971183774857</v>
       </c>
       <c r="H18">
-        <v>0.07873362579683629</v>
+        <v>0.07729680707529241</v>
       </c>
       <c r="I18">
-        <v>0.008182692050615614</v>
+        <v>0.006393493538198847</v>
       </c>
       <c r="J18">
-        <v>0.4189406489028897</v>
+        <v>0.3912372530569499</v>
       </c>
       <c r="K18">
-        <v>0.4247149477794494</v>
+        <v>0.3684480142813307</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1531349332358758</v>
       </c>
       <c r="M18">
-        <v>1.124562668622247</v>
+        <v>0.1249242634606897</v>
       </c>
       <c r="N18">
-        <v>0.05766852119429089</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1785647042004683</v>
+        <v>1.106571999004899</v>
       </c>
       <c r="P18">
-        <v>1.021429493323797</v>
+        <v>0.06414144715417791</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1720529107295512</v>
+      </c>
+      <c r="R18">
+        <v>0.9920439744482721</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.199013455038568</v>
+        <v>1.124136788752054</v>
       </c>
       <c r="C19">
-        <v>0.1507969238389819</v>
+        <v>0.1569912916334175</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03009419410469949</v>
+        <v>0.0293076507715746</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.5684530773563097</v>
+        <v>0.4823626477097989</v>
       </c>
       <c r="H19">
-        <v>0.03287145667485447</v>
+        <v>0.03153422636561487</v>
       </c>
       <c r="I19">
-        <v>0.00801375875429855</v>
+        <v>0.006336919634861715</v>
       </c>
       <c r="J19">
-        <v>0.4554709999594309</v>
+        <v>0.422710654597644</v>
       </c>
       <c r="K19">
-        <v>0.4708866414644746</v>
+        <v>0.4040804705251588</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1663965718104521</v>
       </c>
       <c r="M19">
-        <v>1.143588370918508</v>
+        <v>0.1383563937861538</v>
       </c>
       <c r="N19">
-        <v>0.1049036713632816</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2182272871410724</v>
+        <v>1.122861335276809</v>
       </c>
       <c r="P19">
-        <v>1.023279658198827</v>
+        <v>0.113314665231286</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2100688495283265</v>
+      </c>
+      <c r="R19">
+        <v>0.9832696473552609</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.348414096801662</v>
+        <v>1.247263408061201</v>
       </c>
       <c r="C20">
-        <v>0.1411446492951569</v>
+        <v>0.1488194858844452</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05001587795755391</v>
+        <v>0.04779990228975883</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.6928385218409687</v>
+        <v>0.5863510546978716</v>
       </c>
       <c r="H20">
-        <v>0.004516714361849417</v>
+        <v>0.00356282881987191</v>
       </c>
       <c r="I20">
-        <v>0.006631595402816437</v>
+        <v>0.005401107112605885</v>
       </c>
       <c r="J20">
-        <v>0.5169807406646783</v>
+        <v>0.4590589561664729</v>
       </c>
       <c r="K20">
-        <v>0.5514675868726897</v>
+        <v>0.4616104847875206</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1860029664741631</v>
       </c>
       <c r="M20">
-        <v>1.233320547646031</v>
+        <v>0.1623911872534762</v>
       </c>
       <c r="N20">
-        <v>0.2132824791158896</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2964148639384163</v>
+        <v>1.201455153174862</v>
       </c>
       <c r="P20">
-        <v>1.032192510425824</v>
+        <v>0.2252013659196308</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2842985582114892</v>
+      </c>
+      <c r="R20">
+        <v>0.9727731546807368</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.52538561300608</v>
+        <v>1.389566364624102</v>
       </c>
       <c r="C21">
-        <v>0.1558303901168188</v>
+        <v>0.1587977760109425</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05645262192962086</v>
+        <v>0.05451003373426389</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.7316314540182844</v>
+        <v>0.6667923383324705</v>
       </c>
       <c r="H21">
-        <v>0.00257644754690034</v>
+        <v>0.002040411472639891</v>
       </c>
       <c r="I21">
-        <v>0.004698232616771492</v>
+        <v>0.004126592078967484</v>
       </c>
       <c r="J21">
-        <v>0.5298221720739633</v>
+        <v>0.3793460393385502</v>
       </c>
       <c r="K21">
-        <v>0.5673242277915875</v>
+        <v>0.4523212419778098</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1775204144244107</v>
       </c>
       <c r="M21">
-        <v>1.393841590801401</v>
+        <v>0.1658299826552572</v>
       </c>
       <c r="N21">
-        <v>0.2471556330986573</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3384494848658548</v>
+        <v>1.325978864727574</v>
       </c>
       <c r="P21">
-        <v>0.9927356193792489</v>
+        <v>0.2589568755280567</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3210553827119185</v>
+      </c>
+      <c r="R21">
+        <v>0.9320737292117762</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.639557692837286</v>
+        <v>1.480185464338945</v>
       </c>
       <c r="C22">
-        <v>0.1656315254058711</v>
+        <v>0.1649931041779098</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05951404822723916</v>
+        <v>0.05792798772116825</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.7546343183990984</v>
+        <v>0.7248324407297275</v>
       </c>
       <c r="H22">
-        <v>0.00171017949783292</v>
+        <v>0.001373408686237143</v>
       </c>
       <c r="I22">
-        <v>0.003423420100906682</v>
+        <v>0.003119492894786191</v>
       </c>
       <c r="J22">
-        <v>0.5370656824757418</v>
+        <v>0.3323206320294361</v>
       </c>
       <c r="K22">
-        <v>0.5761084877171569</v>
+        <v>0.4441922215955501</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1714995022026393</v>
       </c>
       <c r="M22">
-        <v>1.497963590252027</v>
+        <v>0.1674516009276772</v>
       </c>
       <c r="N22">
-        <v>0.2632773777808097</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3628727717262947</v>
+        <v>1.404325061461265</v>
       </c>
       <c r="P22">
-        <v>0.966728350896755</v>
+        <v>0.2747449319187609</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.341884514418787</v>
+      </c>
+      <c r="R22">
+        <v>0.9066759527609793</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.581868393915329</v>
+        <v>1.436669392644632</v>
       </c>
       <c r="C23">
-        <v>0.1597898282447119</v>
+        <v>0.1619010153010123</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05797194881056278</v>
+        <v>0.0560667946030371</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.7451746099659431</v>
+        <v>0.6894575596545991</v>
       </c>
       <c r="H23">
-        <v>0.002141763260975815</v>
+        <v>0.001700200364102011</v>
       </c>
       <c r="I23">
-        <v>0.003740531574924155</v>
+        <v>0.003234702961941949</v>
       </c>
       <c r="J23">
-        <v>0.5346303691254803</v>
+        <v>0.3651055336462576</v>
       </c>
       <c r="K23">
-        <v>0.5735094450602247</v>
+        <v>0.4519606202334678</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1758330106899209</v>
       </c>
       <c r="M23">
-        <v>1.443365621388352</v>
+        <v>0.1680034603118052</v>
       </c>
       <c r="N23">
-        <v>0.254452559557734</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3502198554559612</v>
+        <v>1.366782156531798</v>
       </c>
       <c r="P23">
-        <v>0.9814094265330304</v>
+        <v>0.2662370031261929</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3314690215232829</v>
+      </c>
+      <c r="R23">
+        <v>0.9203980203315592</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.358118687667115</v>
+        <v>1.255514828456029</v>
       </c>
       <c r="C24">
-        <v>0.1389819353642423</v>
+        <v>0.1466724637803338</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05199764404501295</v>
+        <v>0.04965757352280598</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.7059932864268745</v>
+        <v>0.5968535141919773</v>
       </c>
       <c r="H24">
-        <v>0.004283496054647951</v>
+        <v>0.003345404436540855</v>
       </c>
       <c r="I24">
-        <v>0.006056553148532373</v>
+        <v>0.004738755423076668</v>
       </c>
       <c r="J24">
-        <v>0.5237876553533312</v>
+        <v>0.46539541408589</v>
       </c>
       <c r="K24">
-        <v>0.5608560211587204</v>
+        <v>0.4691525362114106</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1888233576055924</v>
       </c>
       <c r="M24">
-        <v>1.23552111764397</v>
+        <v>0.1652167836165255</v>
       </c>
       <c r="N24">
-        <v>0.2214943256725945</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.3017258809262273</v>
+        <v>1.20348944614426</v>
       </c>
       <c r="P24">
-        <v>1.036933705945646</v>
+        <v>0.2336967761478661</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2893876077571136</v>
+      </c>
+      <c r="R24">
+        <v>0.9748799721010228</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.116776877359086</v>
+        <v>1.038932383322646</v>
       </c>
       <c r="C25">
-        <v>0.1171139120256157</v>
+        <v>0.1211590558989712</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04556998672144807</v>
+        <v>0.04398005287623619</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.6663729010737853</v>
+        <v>0.5698793033889302</v>
       </c>
       <c r="H25">
-        <v>0.007570050210920554</v>
+        <v>0.005996304742162506</v>
       </c>
       <c r="I25">
-        <v>0.009732154891640477</v>
+        <v>0.007384604068111145</v>
       </c>
       <c r="J25">
-        <v>0.5136424663913459</v>
+        <v>0.4676293758776637</v>
       </c>
       <c r="K25">
-        <v>0.5485209290039847</v>
+        <v>0.4685611742451243</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1964502703374755</v>
       </c>
       <c r="M25">
-        <v>1.012255749843376</v>
+        <v>0.1561325126067779</v>
       </c>
       <c r="N25">
-        <v>0.1861213949762757</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2494973278126764</v>
+        <v>0.9910043830210498</v>
       </c>
       <c r="P25">
-        <v>1.099446819700525</v>
+        <v>0.1973133466444708</v>
       </c>
       <c r="Q25">
+        <v>0.2402372629356151</v>
+      </c>
+      <c r="R25">
+        <v>1.03359327637011</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
